--- a/Normalización.xlsx
+++ b/Normalización.xlsx
@@ -7,7 +7,7 @@
     <sheet state="visible" name="1FN" sheetId="2" r:id="rId5"/>
     <sheet state="visible" name="2FN" sheetId="3" r:id="rId6"/>
     <sheet state="visible" name="3FN" sheetId="4" r:id="rId7"/>
-    <sheet state="visible" name="Diccionario de datos" sheetId="5" r:id="rId8"/>
+    <sheet state="hidden" name="Diccionario de datos" sheetId="5" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1154" uniqueCount="276">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1150" uniqueCount="275">
   <si>
     <t>Tabla General</t>
   </si>
@@ -388,6 +388,9 @@
     <t>Negocios</t>
   </si>
   <si>
+    <t>Logo_negocio</t>
+  </si>
+  <si>
     <t>Nombre_negocio</t>
   </si>
   <si>
@@ -415,7 +418,19 @@
     <t>Nombre_producto</t>
   </si>
   <si>
-    <t>Estado_producto</t>
+    <t>Descripción_producto</t>
+  </si>
+  <si>
+    <t>Carateristicas_Producto</t>
+  </si>
+  <si>
+    <t>Stock_productos</t>
+  </si>
+  <si>
+    <t>Precio_producto</t>
+  </si>
+  <si>
+    <t>Estado_Producto</t>
   </si>
   <si>
     <t>Comentarios</t>
@@ -430,6 +445,9 @@
     <t>Detalle_Ventas</t>
   </si>
   <si>
+    <t>Cantidad_ventas</t>
+  </si>
+  <si>
     <t>Medios_pago</t>
   </si>
   <si>
@@ -439,6 +457,9 @@
     <t>Movimientos_Stock</t>
   </si>
   <si>
+    <t>Cantidad_stock</t>
+  </si>
+  <si>
     <t>Entrada</t>
   </si>
   <si>
@@ -481,6 +502,12 @@
     <t>Id_negocio (PK)</t>
   </si>
   <si>
+    <t>Descripción_negocio</t>
+  </si>
+  <si>
+    <t>Teléfono_negocio</t>
+  </si>
+  <si>
     <t>Id_puestos (PK)</t>
   </si>
   <si>
@@ -490,7 +517,7 @@
     <t>Id_producto (PK)</t>
   </si>
   <si>
-    <t>Estado_Producto</t>
+    <t>Imagen_producto</t>
   </si>
   <si>
     <t>Id_comentario (PK)</t>
@@ -544,46 +571,16 @@
     <t>Id_usuario (FK)</t>
   </si>
   <si>
-    <t>Logo_negocio</t>
-  </si>
-  <si>
-    <t>Descripción_negocio</t>
-  </si>
-  <si>
-    <t>Teléfono_negocio</t>
-  </si>
-  <si>
     <t>Id_negocio (FK)</t>
   </si>
   <si>
     <t>Id_categoría (FK)</t>
   </si>
   <si>
-    <t>Imagen_producto</t>
-  </si>
-  <si>
-    <t>Descripción_producto</t>
-  </si>
-  <si>
-    <t>Carateristicas_Producto</t>
-  </si>
-  <si>
-    <t>Stock_productos</t>
-  </si>
-  <si>
-    <t>Precio_producto</t>
-  </si>
-  <si>
     <t>Id_producto (FK)</t>
   </si>
   <si>
     <t>Id_venta (FK)</t>
-  </si>
-  <si>
-    <t>Cantidad_ventas</t>
-  </si>
-  <si>
-    <t>Cantidad_stock</t>
   </si>
   <si>
     <t>Tabla Usuarios</t>
@@ -1056,7 +1053,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="82">
+  <cellXfs count="86">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -1151,10 +1148,10 @@
       <alignment horizontal="center"/>
     </xf>
     <xf borderId="1" fillId="3" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="1" fillId="3" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0"/>
-    </xf>
-    <xf borderId="2" fillId="3" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf borderId="1" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center"/>
@@ -1165,8 +1162,11 @@
     <xf borderId="1" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" vertical="bottom"/>
     </xf>
-    <xf borderId="1" fillId="3" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" vertical="bottom"/>
+    <xf borderId="2" fillId="3" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" vertical="bottom"/>
+    </xf>
+    <xf borderId="2" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="4" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" vertical="bottom"/>
@@ -1192,6 +1192,18 @@
     <xf borderId="1" fillId="0" fontId="3" numFmtId="166" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf borderId="2" fillId="3" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0"/>
+    </xf>
+    <xf borderId="6" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0"/>
+    </xf>
+    <xf borderId="2" fillId="0" fontId="3" numFmtId="3" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="center" readingOrder="0"/>
+    </xf>
+    <xf borderId="6" fillId="0" fontId="3" numFmtId="3" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="center" readingOrder="0"/>
+    </xf>
     <xf borderId="1" fillId="5" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" vertical="bottom"/>
     </xf>
@@ -1204,9 +1216,6 @@
     <xf borderId="6" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" vertical="bottom"/>
     </xf>
-    <xf borderId="6" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
-    </xf>
     <xf borderId="1" fillId="5" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0"/>
     </xf>
@@ -1215,9 +1224,6 @@
     </xf>
     <xf borderId="6" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf borderId="2" fillId="3" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" vertical="bottom"/>
@@ -1231,8 +1237,14 @@
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" vertical="bottom"/>
     </xf>
+    <xf borderId="2" fillId="3" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" vertical="bottom"/>
+    </xf>
     <xf borderId="2" fillId="0" fontId="3" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center" readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="2" fillId="3" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0"/>
@@ -1252,12 +1264,6 @@
     <xf borderId="8" fillId="3" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" vertical="bottom"/>
     </xf>
-    <xf borderId="2" fillId="3" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
-    </xf>
-    <xf borderId="2" fillId="0" fontId="3" numFmtId="3" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" readingOrder="0"/>
-    </xf>
     <xf borderId="1" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" vertical="bottom"/>
     </xf>
@@ -1267,13 +1273,16 @@
     <xf borderId="1" fillId="6" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="1" fillId="5" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" vertical="bottom"/>
     </xf>
     <xf borderId="1" fillId="6" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0"/>
     </xf>
-    <xf borderId="1" fillId="6" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center" vertical="bottom"/>
+    </xf>
+    <xf borderId="1" fillId="5" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" vertical="bottom"/>
     </xf>
     <xf borderId="2" fillId="4" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
@@ -4335,20 +4344,20 @@
       <c r="A28" s="34" t="s">
         <v>6</v>
       </c>
-      <c r="B28" s="34" t="s">
-        <v>7</v>
-      </c>
-      <c r="C28" s="35" t="s">
+      <c r="B28" s="35" t="s">
         <v>122</v>
       </c>
-      <c r="D28" s="34" t="s">
-        <v>8</v>
-      </c>
-      <c r="E28" s="36" t="s">
-        <v>9</v>
-      </c>
-      <c r="F28" s="35" t="s">
+      <c r="C28" s="36" t="s">
         <v>123</v>
+      </c>
+      <c r="D28" s="35" t="s">
+        <v>122</v>
+      </c>
+      <c r="E28" s="35" t="s">
+        <v>122</v>
+      </c>
+      <c r="F28" s="36" t="s">
+        <v>124</v>
       </c>
       <c r="G28" s="20"/>
       <c r="H28" s="20"/>
@@ -4371,7 +4380,7 @@
         <v>3.595789634E9</v>
       </c>
       <c r="F29" s="39" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="G29" s="20"/>
       <c r="H29" s="20"/>
@@ -4394,7 +4403,7 @@
         <v>3.258964851E9</v>
       </c>
       <c r="F30" s="39" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="G30" s="20"/>
       <c r="H30" s="20"/>
@@ -4417,7 +4426,7 @@
         <v>3.548954628E9</v>
       </c>
       <c r="F31" s="39" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="G31" s="20"/>
       <c r="H31" s="20"/>
@@ -4440,7 +4449,7 @@
         <v>3.286347687E9</v>
       </c>
       <c r="F32" s="39" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="G32" s="20"/>
       <c r="H32" s="20"/>
@@ -4463,7 +4472,7 @@
         <v>3.289465237E9</v>
       </c>
       <c r="F33" s="39" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="G33" s="20"/>
       <c r="H33" s="20"/>
@@ -4499,7 +4508,7 @@
     </row>
     <row r="36" ht="15.75" customHeight="1">
       <c r="A36" s="30" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="D36" s="20"/>
       <c r="E36" s="20"/>
@@ -4661,7 +4670,7 @@
     </row>
     <row r="45" ht="15.75" customHeight="1">
       <c r="A45" s="30" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C45" s="20"/>
       <c r="D45" s="20"/>
@@ -4677,8 +4686,8 @@
       <c r="A46" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="B46" s="40" t="s">
-        <v>128</v>
+      <c r="B46" s="35" t="s">
+        <v>129</v>
       </c>
       <c r="C46" s="20"/>
       <c r="D46" s="20"/>
@@ -4805,7 +4814,7 @@
     </row>
     <row r="54" ht="15.75" customHeight="1">
       <c r="A54" s="30" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="I54" s="6"/>
       <c r="J54" s="20"/>
@@ -4819,23 +4828,23 @@
       <c r="B55" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="C55" s="40" t="s">
-        <v>130</v>
+      <c r="C55" s="35" t="s">
+        <v>131</v>
       </c>
       <c r="D55" s="8" t="s">
-        <v>8</v>
+        <v>132</v>
       </c>
       <c r="E55" s="8" t="s">
-        <v>16</v>
+        <v>133</v>
       </c>
       <c r="F55" s="8" t="s">
-        <v>17</v>
+        <v>134</v>
       </c>
       <c r="G55" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="H55" s="35" t="s">
-        <v>131</v>
+        <v>135</v>
+      </c>
+      <c r="H55" s="40" t="s">
+        <v>136</v>
       </c>
       <c r="I55" s="20"/>
       <c r="J55" s="20"/>
@@ -4862,8 +4871,8 @@
       <c r="G56" s="14">
         <v>8000.0</v>
       </c>
-      <c r="H56" s="39" t="s">
-        <v>124</v>
+      <c r="H56" s="41">
+        <v>7.0</v>
       </c>
       <c r="I56" s="20"/>
       <c r="J56" s="20"/>
@@ -4890,8 +4899,8 @@
       <c r="G57" s="14">
         <v>5500.0</v>
       </c>
-      <c r="H57" s="39" t="s">
-        <v>124</v>
+      <c r="H57" s="41">
+        <v>9.0</v>
       </c>
       <c r="I57" s="20"/>
       <c r="J57" s="20"/>
@@ -4918,8 +4927,8 @@
       <c r="G58" s="14">
         <v>15000.0</v>
       </c>
-      <c r="H58" s="39" t="s">
-        <v>124</v>
+      <c r="H58" s="41">
+        <v>4.0</v>
       </c>
       <c r="I58" s="20"/>
       <c r="J58" s="20"/>
@@ -4946,8 +4955,8 @@
       <c r="G59" s="14">
         <v>7000.0</v>
       </c>
-      <c r="H59" s="39" t="s">
-        <v>125</v>
+      <c r="H59" s="41">
+        <v>12.0</v>
       </c>
       <c r="I59" s="20"/>
       <c r="J59" s="20"/>
@@ -4974,8 +4983,8 @@
       <c r="G60" s="14">
         <v>25000.0</v>
       </c>
-      <c r="H60" s="39" t="s">
-        <v>124</v>
+      <c r="H60" s="41">
+        <v>2.0</v>
       </c>
       <c r="I60" s="20"/>
       <c r="J60" s="20"/>
@@ -5010,7 +5019,7 @@
     </row>
     <row r="63" ht="15.75" customHeight="1">
       <c r="A63" s="30" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="E63" s="6"/>
       <c r="F63" s="6"/>
@@ -5182,8 +5191,8 @@
       <c r="L71" s="20"/>
     </row>
     <row r="72" ht="15.75" customHeight="1">
-      <c r="A72" s="41" t="s">
-        <v>133</v>
+      <c r="A72" s="42" t="s">
+        <v>138</v>
       </c>
       <c r="E72" s="6"/>
       <c r="F72" s="6"/>
@@ -5195,16 +5204,16 @@
       <c r="L72" s="20"/>
     </row>
     <row r="73" ht="15.75" customHeight="1">
-      <c r="A73" s="40" t="s">
+      <c r="A73" s="35" t="s">
         <v>67</v>
       </c>
-      <c r="B73" s="40" t="s">
+      <c r="B73" s="35" t="s">
         <v>68</v>
       </c>
-      <c r="C73" s="40" t="s">
+      <c r="C73" s="35" t="s">
         <v>69</v>
       </c>
-      <c r="D73" s="40" t="s">
+      <c r="D73" s="35" t="s">
         <v>70</v>
       </c>
       <c r="E73" s="6"/>
@@ -5223,10 +5232,10 @@
       <c r="B74" s="39" t="s">
         <v>82</v>
       </c>
-      <c r="C74" s="42">
+      <c r="C74" s="43">
         <v>45949.0</v>
       </c>
-      <c r="D74" s="42">
+      <c r="D74" s="43">
         <v>45951.0</v>
       </c>
       <c r="E74" s="6"/>
@@ -5245,10 +5254,10 @@
       <c r="B75" s="39" t="s">
         <v>85</v>
       </c>
-      <c r="C75" s="42">
+      <c r="C75" s="43">
         <v>45950.0</v>
       </c>
-      <c r="D75" s="42">
+      <c r="D75" s="43">
         <v>45952.0</v>
       </c>
       <c r="E75" s="6"/>
@@ -5267,10 +5276,10 @@
       <c r="B76" s="39" t="s">
         <v>82</v>
       </c>
-      <c r="C76" s="42">
+      <c r="C76" s="43">
         <v>45943.0</v>
       </c>
-      <c r="D76" s="42">
+      <c r="D76" s="43">
         <v>45945.0</v>
       </c>
       <c r="E76" s="6"/>
@@ -5289,10 +5298,10 @@
       <c r="B77" s="39" t="s">
         <v>82</v>
       </c>
-      <c r="C77" s="42">
+      <c r="C77" s="43">
         <v>45954.0</v>
       </c>
-      <c r="D77" s="42">
+      <c r="D77" s="43">
         <v>45956.0</v>
       </c>
       <c r="E77" s="6"/>
@@ -5311,10 +5320,10 @@
       <c r="B78" s="39" t="s">
         <v>85</v>
       </c>
-      <c r="C78" s="42">
+      <c r="C78" s="43">
         <v>45955.0</v>
       </c>
-      <c r="D78" s="42">
+      <c r="D78" s="43">
         <v>45957.0</v>
       </c>
       <c r="E78" s="6"/>
@@ -5356,7 +5365,7 @@
     </row>
     <row r="81" ht="15.75" customHeight="1">
       <c r="A81" s="30" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="F81" s="6"/>
       <c r="G81" s="20"/>
@@ -5401,10 +5410,10 @@
       <c r="D83" s="16">
         <v>46316.0</v>
       </c>
-      <c r="E83" s="43">
+      <c r="E83" s="44">
         <v>16000.0</v>
       </c>
-      <c r="F83" s="44"/>
+      <c r="F83" s="45"/>
       <c r="G83" s="20"/>
       <c r="H83" s="20"/>
       <c r="I83" s="20"/>
@@ -5423,10 +5432,10 @@
       <c r="D84" s="16">
         <v>46317.0</v>
       </c>
-      <c r="E84" s="43">
+      <c r="E84" s="44">
         <v>5500.0</v>
       </c>
-      <c r="F84" s="44"/>
+      <c r="F84" s="45"/>
       <c r="G84" s="20"/>
       <c r="H84" s="20"/>
       <c r="I84" s="20"/>
@@ -5445,10 +5454,10 @@
       <c r="D85" s="16">
         <v>46310.0</v>
       </c>
-      <c r="E85" s="43">
+      <c r="E85" s="44">
         <v>75000.0</v>
       </c>
-      <c r="F85" s="44"/>
+      <c r="F85" s="45"/>
       <c r="G85" s="20"/>
       <c r="H85" s="20"/>
       <c r="I85" s="20"/>
@@ -5467,10 +5476,10 @@
       <c r="D86" s="16">
         <v>46319.0</v>
       </c>
-      <c r="E86" s="43">
+      <c r="E86" s="44">
         <v>14000.0</v>
       </c>
-      <c r="F86" s="44"/>
+      <c r="F86" s="45"/>
       <c r="G86" s="20"/>
       <c r="H86" s="20"/>
       <c r="I86" s="20"/>
@@ -5489,10 +5498,10 @@
       <c r="D87" s="16">
         <v>46312.0</v>
       </c>
-      <c r="E87" s="43">
+      <c r="E87" s="44">
         <v>175000.0</v>
       </c>
-      <c r="F87" s="44"/>
+      <c r="F87" s="45"/>
       <c r="G87" s="20"/>
       <c r="H87" s="20"/>
       <c r="I87" s="20"/>
@@ -5526,7 +5535,7 @@
     </row>
     <row r="90" ht="15.75" customHeight="1">
       <c r="A90" s="32" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="E90" s="20"/>
       <c r="F90" s="20"/>
@@ -5541,8 +5550,8 @@
       <c r="A91" s="8" t="s">
         <v>75</v>
       </c>
-      <c r="B91" s="8" t="s">
-        <v>66</v>
+      <c r="B91" s="35" t="s">
+        <v>141</v>
       </c>
       <c r="C91" s="8" t="s">
         <v>76</v>
@@ -5569,7 +5578,7 @@
       <c r="C92" s="14">
         <v>8000.0</v>
       </c>
-      <c r="D92" s="43">
+      <c r="D92" s="44">
         <v>16000.0</v>
       </c>
       <c r="E92" s="20"/>
@@ -5591,7 +5600,7 @@
       <c r="C93" s="14">
         <v>5500.0</v>
       </c>
-      <c r="D93" s="43">
+      <c r="D93" s="44">
         <v>5500.0</v>
       </c>
       <c r="E93" s="20"/>
@@ -5613,7 +5622,7 @@
       <c r="C94" s="14">
         <v>15000.0</v>
       </c>
-      <c r="D94" s="43">
+      <c r="D94" s="44">
         <v>75000.0</v>
       </c>
       <c r="E94" s="20"/>
@@ -5635,7 +5644,7 @@
       <c r="C95" s="14">
         <v>7000.0</v>
       </c>
-      <c r="D95" s="43">
+      <c r="D95" s="44">
         <v>14000.0</v>
       </c>
       <c r="E95" s="20"/>
@@ -5657,7 +5666,7 @@
       <c r="C96" s="14">
         <v>25000.0</v>
       </c>
-      <c r="D96" s="43">
+      <c r="D96" s="44">
         <v>175000.0</v>
       </c>
       <c r="E96" s="20"/>
@@ -5689,21 +5698,21 @@
       <c r="D98" s="19"/>
     </row>
     <row r="99" ht="15.75" customHeight="1">
-      <c r="A99" s="45" t="s">
-        <v>136</v>
+      <c r="A99" s="46" t="s">
+        <v>142</v>
       </c>
     </row>
     <row r="100" ht="15.75" customHeight="1">
-      <c r="A100" s="40" t="s">
+      <c r="A100" s="35" t="s">
         <v>78</v>
       </c>
-      <c r="B100" s="40" t="s">
+      <c r="B100" s="35" t="s">
         <v>79</v>
       </c>
-      <c r="C100" s="40" t="s">
+      <c r="C100" s="35" t="s">
         <v>80</v>
       </c>
-      <c r="D100" s="40" t="s">
+      <c r="D100" s="35" t="s">
         <v>81</v>
       </c>
     </row>
@@ -5786,7 +5795,7 @@
     </row>
     <row r="108" ht="15.75" customHeight="1">
       <c r="A108" s="30" t="s">
-        <v>137</v>
+        <v>143</v>
       </c>
     </row>
     <row r="109" ht="15.75" customHeight="1">
@@ -5887,24 +5896,24 @@
       <c r="E116" s="20"/>
     </row>
     <row r="117" ht="15.75" customHeight="1">
-      <c r="A117" s="41" t="s">
-        <v>138</v>
+      <c r="A117" s="42" t="s">
+        <v>144</v>
       </c>
     </row>
     <row r="118" ht="15.75" customHeight="1">
-      <c r="A118" s="40" t="s">
+      <c r="A118" s="35" t="s">
         <v>95</v>
       </c>
-      <c r="B118" s="40" t="s">
+      <c r="B118" s="35" t="s">
         <v>96</v>
       </c>
-      <c r="C118" s="40" t="s">
+      <c r="C118" s="35" t="s">
         <v>97</v>
       </c>
-      <c r="D118" s="40" t="s">
-        <v>98</v>
-      </c>
-      <c r="E118" s="35" t="s">
+      <c r="D118" s="35" t="s">
+        <v>145</v>
+      </c>
+      <c r="E118" s="36" t="s">
         <v>99</v>
       </c>
     </row>
@@ -5912,16 +5921,16 @@
       <c r="A119" s="11">
         <v>1.0</v>
       </c>
-      <c r="B119" s="42">
+      <c r="B119" s="43">
         <v>45987.0</v>
       </c>
       <c r="C119" s="39" t="s">
-        <v>139</v>
+        <v>146</v>
       </c>
       <c r="D119" s="39">
         <v>8.0</v>
       </c>
-      <c r="E119" s="46" t="s">
+      <c r="E119" s="47" t="s">
         <v>27</v>
       </c>
     </row>
@@ -5929,16 +5938,16 @@
       <c r="A120" s="11">
         <v>2.0</v>
       </c>
-      <c r="B120" s="42">
+      <c r="B120" s="43">
         <v>45988.0</v>
       </c>
-      <c r="C120" s="47" t="s">
-        <v>139</v>
+      <c r="C120" s="48" t="s">
+        <v>146</v>
       </c>
       <c r="D120" s="39">
         <v>6.0</v>
       </c>
-      <c r="E120" s="46" t="s">
+      <c r="E120" s="47" t="s">
         <v>27</v>
       </c>
     </row>
@@ -5946,16 +5955,16 @@
       <c r="A121" s="11">
         <v>3.0</v>
       </c>
-      <c r="B121" s="42">
+      <c r="B121" s="43">
         <v>45943.0</v>
       </c>
-      <c r="C121" s="47" t="s">
-        <v>140</v>
+      <c r="C121" s="48" t="s">
+        <v>147</v>
       </c>
       <c r="D121" s="39">
         <v>3.0</v>
       </c>
-      <c r="E121" s="46" t="s">
+      <c r="E121" s="47" t="s">
         <v>27</v>
       </c>
     </row>
@@ -5963,16 +5972,16 @@
       <c r="A122" s="11">
         <v>4.0</v>
       </c>
-      <c r="B122" s="42">
+      <c r="B122" s="43">
         <v>45954.0</v>
       </c>
-      <c r="C122" s="47" t="s">
-        <v>139</v>
+      <c r="C122" s="48" t="s">
+        <v>146</v>
       </c>
       <c r="D122" s="39">
         <v>5.0</v>
       </c>
-      <c r="E122" s="46" t="s">
+      <c r="E122" s="47" t="s">
         <v>27</v>
       </c>
     </row>
@@ -5980,16 +5989,16 @@
       <c r="A123" s="11">
         <v>5.0</v>
       </c>
-      <c r="B123" s="48">
+      <c r="B123" s="49">
         <v>45920.0</v>
       </c>
-      <c r="C123" s="47" t="s">
-        <v>140</v>
+      <c r="C123" s="48" t="s">
+        <v>147</v>
       </c>
       <c r="D123" s="39">
         <v>2.0</v>
       </c>
-      <c r="E123" s="46" t="s">
+      <c r="E123" s="47" t="s">
         <v>27</v>
       </c>
     </row>
@@ -6001,21 +6010,21 @@
       <c r="D125" s="19"/>
     </row>
     <row r="126" ht="15.75" customHeight="1">
-      <c r="A126" s="45" t="s">
-        <v>141</v>
+      <c r="A126" s="46" t="s">
+        <v>148</v>
       </c>
     </row>
     <row r="127" ht="15.75" customHeight="1">
-      <c r="A127" s="40" t="s">
+      <c r="A127" s="35" t="s">
         <v>100</v>
       </c>
-      <c r="B127" s="40" t="s">
+      <c r="B127" s="35" t="s">
         <v>101</v>
       </c>
-      <c r="C127" s="40" t="s">
+      <c r="C127" s="35" t="s">
         <v>102</v>
       </c>
-      <c r="D127" s="40" t="s">
+      <c r="D127" s="35" t="s">
         <v>103</v>
       </c>
     </row>
@@ -6026,11 +6035,11 @@
       <c r="B128" s="39" t="s">
         <v>27</v>
       </c>
-      <c r="C128" s="42">
+      <c r="C128" s="43">
         <v>45982.0</v>
       </c>
       <c r="D128" s="39" t="s">
-        <v>142</v>
+        <v>149</v>
       </c>
     </row>
     <row r="129" ht="15.75" customHeight="1">
@@ -6040,11 +6049,11 @@
       <c r="B129" s="39" t="s">
         <v>27</v>
       </c>
-      <c r="C129" s="42">
+      <c r="C129" s="43">
         <v>45983.0</v>
       </c>
       <c r="D129" s="39" t="s">
-        <v>142</v>
+        <v>149</v>
       </c>
     </row>
     <row r="130" ht="15.75" customHeight="1">
@@ -6054,11 +6063,11 @@
       <c r="B130" s="39" t="s">
         <v>27</v>
       </c>
-      <c r="C130" s="42">
+      <c r="C130" s="43">
         <v>45976.0</v>
       </c>
       <c r="D130" s="39" t="s">
-        <v>142</v>
+        <v>149</v>
       </c>
     </row>
     <row r="131" ht="15.75" customHeight="1">
@@ -6068,11 +6077,11 @@
       <c r="B131" s="39" t="s">
         <v>27</v>
       </c>
-      <c r="C131" s="42">
+      <c r="C131" s="43">
         <v>45987.0</v>
       </c>
       <c r="D131" s="39" t="s">
-        <v>142</v>
+        <v>149</v>
       </c>
     </row>
     <row r="132" ht="15.75" customHeight="1">
@@ -6082,11 +6091,11 @@
       <c r="B132" s="39" t="s">
         <v>27</v>
       </c>
-      <c r="C132" s="42">
+      <c r="C132" s="43">
         <v>45988.0</v>
       </c>
       <c r="D132" s="39" t="s">
-        <v>142</v>
+        <v>149</v>
       </c>
     </row>
     <row r="133" ht="15.75" customHeight="1"/>
@@ -6098,110 +6107,99 @@
     </row>
     <row r="135" ht="15.75" customHeight="1">
       <c r="A135" s="30" t="s">
-        <v>143</v>
-      </c>
+        <v>150</v>
+      </c>
+      <c r="E135" s="6"/>
     </row>
     <row r="136" ht="15.75" customHeight="1">
-      <c r="A136" s="40" t="s">
+      <c r="A136" s="35" t="s">
         <v>104</v>
       </c>
       <c r="B136" s="8" t="s">
-        <v>3</v>
+        <v>62</v>
       </c>
       <c r="C136" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="D136" s="8" t="s">
         <v>101</v>
       </c>
-      <c r="E136" s="35" t="s">
-        <v>144</v>
-      </c>
+      <c r="D136" s="50" t="s">
+        <v>151</v>
+      </c>
+      <c r="E136" s="51"/>
     </row>
     <row r="137" ht="15.75" customHeight="1">
       <c r="A137" s="11">
         <v>1.0</v>
       </c>
-      <c r="B137" s="11" t="s">
-        <v>105</v>
-      </c>
-      <c r="C137" s="18">
+      <c r="B137" s="18">
         <v>45920.0</v>
       </c>
-      <c r="D137" s="11" t="s">
+      <c r="C137" s="11" t="s">
         <v>106</v>
       </c>
-      <c r="E137" s="46" t="s">
+      <c r="D137" s="52" t="s">
         <v>27</v>
       </c>
+      <c r="E137" s="53"/>
     </row>
     <row r="138" ht="15.75" customHeight="1">
       <c r="A138" s="11">
         <v>2.0</v>
       </c>
-      <c r="B138" s="11" t="s">
-        <v>107</v>
-      </c>
-      <c r="C138" s="18">
+      <c r="B138" s="18">
         <v>45921.0</v>
       </c>
-      <c r="D138" s="11" t="s">
+      <c r="C138" s="11" t="s">
         <v>108</v>
       </c>
-      <c r="E138" s="46" t="s">
+      <c r="D138" s="52" t="s">
         <v>27</v>
       </c>
+      <c r="E138" s="53"/>
     </row>
     <row r="139" ht="15.75" customHeight="1">
       <c r="A139" s="11">
         <v>3.0</v>
       </c>
-      <c r="B139" s="11" t="s">
-        <v>109</v>
-      </c>
-      <c r="C139" s="18">
+      <c r="B139" s="18">
         <v>45922.0</v>
       </c>
-      <c r="D139" s="11" t="s">
+      <c r="C139" s="11" t="s">
         <v>110</v>
       </c>
-      <c r="E139" s="46" t="s">
+      <c r="D139" s="52" t="s">
         <v>27</v>
       </c>
+      <c r="E139" s="53"/>
     </row>
     <row r="140" ht="15.75" customHeight="1">
       <c r="A140" s="11">
         <v>4.0</v>
       </c>
-      <c r="B140" s="11" t="s">
-        <v>111</v>
-      </c>
-      <c r="C140" s="16">
+      <c r="B140" s="16">
         <v>45953.0</v>
       </c>
-      <c r="D140" s="11" t="s">
+      <c r="C140" s="11" t="s">
         <v>112</v>
       </c>
-      <c r="E140" s="46" t="s">
+      <c r="D140" s="52" t="s">
         <v>27</v>
       </c>
+      <c r="E140" s="53"/>
     </row>
     <row r="141" ht="15.75" customHeight="1">
       <c r="A141" s="11">
         <v>5.0</v>
       </c>
-      <c r="B141" s="11" t="s">
-        <v>113</v>
-      </c>
-      <c r="C141" s="18">
+      <c r="B141" s="18">
         <v>45893.0</v>
       </c>
-      <c r="D141" s="11" t="s">
+      <c r="C141" s="11" t="s">
         <v>110</v>
       </c>
-      <c r="E141" s="46" t="s">
+      <c r="D141" s="52" t="s">
         <v>27</v>
       </c>
+      <c r="E141" s="53"/>
     </row>
     <row r="142" ht="15.75" customHeight="1"/>
     <row r="143" ht="15.75" customHeight="1"/>
@@ -7035,19 +7033,19 @@
     <mergeCell ref="B8:H8"/>
     <mergeCell ref="A11:B11"/>
     <mergeCell ref="A18:D18"/>
-    <mergeCell ref="A81:E81"/>
     <mergeCell ref="A90:D90"/>
     <mergeCell ref="A99:D99"/>
     <mergeCell ref="A108:D108"/>
     <mergeCell ref="A117:E117"/>
     <mergeCell ref="A126:D126"/>
-    <mergeCell ref="A135:E135"/>
+    <mergeCell ref="A135:D135"/>
+    <mergeCell ref="A27:F27"/>
     <mergeCell ref="A36:C36"/>
     <mergeCell ref="A45:B45"/>
+    <mergeCell ref="A54:H54"/>
     <mergeCell ref="A63:D63"/>
     <mergeCell ref="A72:D72"/>
-    <mergeCell ref="A27:F27"/>
-    <mergeCell ref="A54:H54"/>
+    <mergeCell ref="A81:E81"/>
   </mergeCells>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -7064,7 +7062,7 @@
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.0"/>
   <cols>
     <col customWidth="1" min="1" max="1" width="21.5"/>
-    <col customWidth="1" min="2" max="2" width="14.25"/>
+    <col customWidth="1" min="2" max="2" width="15.13"/>
     <col customWidth="1" min="3" max="3" width="20.38"/>
     <col customWidth="1" min="4" max="4" width="22.5"/>
     <col customWidth="1" min="5" max="5" width="21.75"/>
@@ -7090,7 +7088,7 @@
     </row>
     <row r="2" ht="15.75" customHeight="1">
       <c r="A2" s="3" t="s">
-        <v>145</v>
+        <v>152</v>
       </c>
     </row>
     <row r="3" ht="15.75" customHeight="1">
@@ -7122,7 +7120,7 @@
     <row r="5" ht="15.75" customHeight="1">
       <c r="A5" s="4"/>
       <c r="B5" s="22" t="s">
-        <v>146</v>
+        <v>153</v>
       </c>
       <c r="C5" s="23"/>
       <c r="D5" s="23"/>
@@ -7137,7 +7135,7 @@
     <row r="6" ht="15.75" customHeight="1">
       <c r="A6" s="4"/>
       <c r="B6" s="25" t="s">
-        <v>147</v>
+        <v>154</v>
       </c>
       <c r="H6" s="26"/>
       <c r="I6" s="4"/>
@@ -7147,7 +7145,7 @@
     <row r="7" ht="15.75" customHeight="1">
       <c r="A7" s="4"/>
       <c r="B7" s="25" t="s">
-        <v>148</v>
+        <v>155</v>
       </c>
       <c r="H7" s="26"/>
       <c r="I7" s="4"/>
@@ -7157,7 +7155,7 @@
     <row r="8" ht="15.75" customHeight="1">
       <c r="A8" s="4"/>
       <c r="B8" s="27" t="s">
-        <v>149</v>
+        <v>156</v>
       </c>
       <c r="C8" s="28"/>
       <c r="D8" s="28"/>
@@ -7215,8 +7213,8 @@
       <c r="G12" s="4"/>
     </row>
     <row r="13" ht="15.75" customHeight="1">
-      <c r="A13" s="49" t="s">
-        <v>150</v>
+      <c r="A13" s="54" t="s">
+        <v>157</v>
       </c>
       <c r="B13" s="8" t="s">
         <v>2</v>
@@ -7293,8 +7291,8 @@
       <c r="G19" s="20"/>
     </row>
     <row r="20" ht="15.75" customHeight="1">
-      <c r="A20" s="49" t="s">
-        <v>151</v>
+      <c r="A20" s="54" t="s">
+        <v>158</v>
       </c>
       <c r="B20" s="8" t="s">
         <v>2</v>
@@ -7302,10 +7300,10 @@
       <c r="C20" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="D20" s="50" t="s">
+      <c r="D20" s="55" t="s">
         <v>5</v>
       </c>
-      <c r="E20" s="51"/>
+      <c r="E20" s="56"/>
       <c r="F20" s="20"/>
       <c r="G20" s="20"/>
     </row>
@@ -7322,7 +7320,7 @@
       <c r="D21" s="38" t="s">
         <v>22</v>
       </c>
-      <c r="E21" s="52"/>
+      <c r="E21" s="57"/>
       <c r="F21" s="20"/>
       <c r="G21" s="20"/>
     </row>
@@ -7339,7 +7337,7 @@
       <c r="D22" s="38" t="s">
         <v>31</v>
       </c>
-      <c r="E22" s="52"/>
+      <c r="E22" s="57"/>
       <c r="F22" s="20"/>
       <c r="G22" s="20"/>
     </row>
@@ -7356,7 +7354,7 @@
       <c r="D23" s="38" t="s">
         <v>39</v>
       </c>
-      <c r="E23" s="52"/>
+      <c r="E23" s="57"/>
       <c r="F23" s="20"/>
       <c r="G23" s="20"/>
     </row>
@@ -7373,7 +7371,7 @@
       <c r="D24" s="38" t="s">
         <v>47</v>
       </c>
-      <c r="E24" s="53"/>
+      <c r="E24" s="51"/>
       <c r="F24" s="20"/>
       <c r="G24" s="20"/>
     </row>
@@ -7390,7 +7388,7 @@
       <c r="D25" s="38" t="s">
         <v>56</v>
       </c>
-      <c r="E25" s="53"/>
+      <c r="E25" s="51"/>
       <c r="F25" s="20"/>
       <c r="G25" s="20"/>
     </row>
@@ -7419,23 +7417,23 @@
       <c r="G28" s="33"/>
     </row>
     <row r="29" ht="15.75" customHeight="1">
-      <c r="A29" s="54" t="s">
-        <v>152</v>
-      </c>
-      <c r="B29" s="34" t="s">
-        <v>7</v>
-      </c>
-      <c r="C29" s="35" t="s">
+      <c r="A29" s="58" t="s">
+        <v>159</v>
+      </c>
+      <c r="B29" s="8" t="s">
         <v>122</v>
       </c>
-      <c r="D29" s="34" t="s">
-        <v>8</v>
-      </c>
-      <c r="E29" s="36" t="s">
-        <v>9</v>
-      </c>
-      <c r="F29" s="55" t="s">
+      <c r="C29" s="59" t="s">
         <v>123</v>
+      </c>
+      <c r="D29" s="8" t="s">
+        <v>160</v>
+      </c>
+      <c r="E29" s="55" t="s">
+        <v>161</v>
+      </c>
+      <c r="F29" s="59" t="s">
+        <v>124</v>
       </c>
       <c r="G29" s="20"/>
     </row>
@@ -7443,20 +7441,20 @@
       <c r="A30" s="37">
         <v>1.0</v>
       </c>
-      <c r="B30" s="37" t="s">
+      <c r="B30" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="C30" s="37" t="s">
+      <c r="C30" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="D30" s="37" t="s">
+      <c r="D30" s="11" t="s">
         <v>24</v>
       </c>
       <c r="E30" s="38">
         <v>3.595789634E9</v>
       </c>
       <c r="F30" s="11" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="G30" s="20"/>
     </row>
@@ -7464,20 +7462,20 @@
       <c r="A31" s="37">
         <v>2.0</v>
       </c>
-      <c r="B31" s="37" t="s">
+      <c r="B31" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="C31" s="37" t="s">
+      <c r="C31" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="D31" s="37" t="s">
+      <c r="D31" s="11" t="s">
         <v>33</v>
       </c>
       <c r="E31" s="38">
         <v>3.258964851E9</v>
       </c>
       <c r="F31" s="11" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="G31" s="20"/>
     </row>
@@ -7485,20 +7483,20 @@
       <c r="A32" s="37">
         <v>3.0</v>
       </c>
-      <c r="B32" s="37" t="s">
+      <c r="B32" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="C32" s="37" t="s">
+      <c r="C32" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="D32" s="37" t="s">
+      <c r="D32" s="11" t="s">
         <v>41</v>
       </c>
       <c r="E32" s="38">
         <v>3.548954628E9</v>
       </c>
       <c r="F32" s="11" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="G32" s="20"/>
     </row>
@@ -7506,20 +7504,20 @@
       <c r="A33" s="37">
         <v>4.0</v>
       </c>
-      <c r="B33" s="37" t="s">
+      <c r="B33" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="C33" s="37" t="s">
+      <c r="C33" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="D33" s="37" t="s">
+      <c r="D33" s="11" t="s">
         <v>49</v>
       </c>
       <c r="E33" s="38">
         <v>3.286347687E9</v>
       </c>
       <c r="F33" s="11" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="G33" s="20"/>
     </row>
@@ -7527,20 +7525,20 @@
       <c r="A34" s="37">
         <v>5.0</v>
       </c>
-      <c r="B34" s="37" t="s">
+      <c r="B34" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="C34" s="37" t="s">
+      <c r="C34" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="D34" s="37" t="s">
+      <c r="D34" s="11" t="s">
         <v>58</v>
       </c>
       <c r="E34" s="38">
         <v>3.289465237E9</v>
       </c>
       <c r="F34" s="11" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="G34" s="20"/>
     </row>
@@ -7564,7 +7562,7 @@
     </row>
     <row r="37" ht="15.75" customHeight="1">
       <c r="A37" s="30" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="D37" s="6"/>
       <c r="E37" s="20"/>
@@ -7572,16 +7570,16 @@
       <c r="G37" s="20"/>
     </row>
     <row r="38" ht="15.75" customHeight="1">
-      <c r="A38" s="49" t="s">
-        <v>153</v>
+      <c r="A38" s="54" t="s">
+        <v>162</v>
       </c>
       <c r="B38" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="C38" s="50" t="s">
+      <c r="C38" s="55" t="s">
         <v>12</v>
       </c>
-      <c r="D38" s="53"/>
+      <c r="D38" s="51"/>
       <c r="E38" s="20"/>
       <c r="F38" s="20"/>
       <c r="G38" s="20"/>
@@ -7596,7 +7594,7 @@
       <c r="C39" s="38">
         <v>51.22</v>
       </c>
-      <c r="D39" s="56"/>
+      <c r="D39" s="60"/>
       <c r="E39" s="20"/>
       <c r="F39" s="20"/>
       <c r="G39" s="20"/>
@@ -7611,7 +7609,7 @@
       <c r="C40" s="38" t="s">
         <v>34</v>
       </c>
-      <c r="D40" s="56"/>
+      <c r="D40" s="60"/>
       <c r="E40" s="20"/>
       <c r="F40" s="20"/>
       <c r="G40" s="20"/>
@@ -7626,7 +7624,7 @@
       <c r="C41" s="38" t="s">
         <v>42</v>
       </c>
-      <c r="D41" s="56"/>
+      <c r="D41" s="60"/>
       <c r="E41" s="20"/>
       <c r="F41" s="20"/>
       <c r="G41" s="20"/>
@@ -7641,7 +7639,7 @@
       <c r="C42" s="38" t="s">
         <v>51</v>
       </c>
-      <c r="D42" s="56"/>
+      <c r="D42" s="60"/>
       <c r="E42" s="20"/>
       <c r="F42" s="20"/>
       <c r="G42" s="20"/>
@@ -7656,7 +7654,7 @@
       <c r="C43" s="38">
         <v>30.29</v>
       </c>
-      <c r="D43" s="56"/>
+      <c r="D43" s="60"/>
       <c r="E43" s="20"/>
       <c r="F43" s="20"/>
       <c r="G43" s="20"/>
@@ -7681,7 +7679,7 @@
     </row>
     <row r="46" ht="15.75" customHeight="1">
       <c r="A46" s="30" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C46" s="20"/>
       <c r="D46" s="20"/>
@@ -7690,11 +7688,11 @@
       <c r="G46" s="20"/>
     </row>
     <row r="47" ht="15.75" customHeight="1">
-      <c r="A47" s="49" t="s">
-        <v>154</v>
-      </c>
-      <c r="B47" s="8" t="s">
-        <v>2</v>
+      <c r="A47" s="54" t="s">
+        <v>163</v>
+      </c>
+      <c r="B47" s="35" t="s">
+        <v>129</v>
       </c>
       <c r="C47" s="20"/>
       <c r="D47" s="20"/>
@@ -7787,38 +7785,38 @@
     </row>
     <row r="55" ht="15.75" customHeight="1">
       <c r="A55" s="30" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="I55" s="6"/>
       <c r="J55" s="6"/>
     </row>
     <row r="56" ht="15.75" customHeight="1">
-      <c r="A56" s="49" t="s">
-        <v>155</v>
+      <c r="A56" s="54" t="s">
+        <v>164</v>
       </c>
       <c r="B56" s="8" t="s">
-        <v>15</v>
+        <v>165</v>
       </c>
       <c r="C56" s="8" t="s">
-        <v>2</v>
+        <v>131</v>
       </c>
       <c r="D56" s="8" t="s">
-        <v>8</v>
+        <v>132</v>
       </c>
       <c r="E56" s="8" t="s">
-        <v>16</v>
+        <v>133</v>
       </c>
       <c r="F56" s="8" t="s">
-        <v>17</v>
+        <v>134</v>
       </c>
       <c r="G56" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="H56" s="57" t="s">
-        <v>156</v>
-      </c>
-      <c r="I56" s="53"/>
-      <c r="J56" s="58"/>
+        <v>135</v>
+      </c>
+      <c r="H56" s="40" t="s">
+        <v>136</v>
+      </c>
+      <c r="I56" s="51"/>
+      <c r="J56" s="61"/>
     </row>
     <row r="57" ht="15.75" customHeight="1">
       <c r="A57" s="11">
@@ -7842,11 +7840,11 @@
       <c r="G57" s="14">
         <v>8000.0</v>
       </c>
-      <c r="H57" s="11" t="s">
-        <v>124</v>
-      </c>
-      <c r="I57" s="56"/>
-      <c r="J57" s="59"/>
+      <c r="H57" s="38">
+        <v>7.0</v>
+      </c>
+      <c r="I57" s="60"/>
+      <c r="J57" s="62"/>
     </row>
     <row r="58" ht="15.75" customHeight="1">
       <c r="A58" s="11">
@@ -7870,11 +7868,11 @@
       <c r="G58" s="14">
         <v>5500.0</v>
       </c>
-      <c r="H58" s="11" t="s">
-        <v>124</v>
-      </c>
-      <c r="I58" s="56"/>
-      <c r="J58" s="59"/>
+      <c r="H58" s="38">
+        <v>9.0</v>
+      </c>
+      <c r="I58" s="60"/>
+      <c r="J58" s="62"/>
     </row>
     <row r="59" ht="15.75" customHeight="1">
       <c r="A59" s="11">
@@ -7898,11 +7896,11 @@
       <c r="G59" s="14">
         <v>15000.0</v>
       </c>
-      <c r="H59" s="11" t="s">
-        <v>124</v>
-      </c>
-      <c r="I59" s="56"/>
-      <c r="J59" s="59"/>
+      <c r="H59" s="38">
+        <v>4.0</v>
+      </c>
+      <c r="I59" s="60"/>
+      <c r="J59" s="62"/>
     </row>
     <row r="60" ht="15.75" customHeight="1">
       <c r="A60" s="11">
@@ -7926,11 +7924,11 @@
       <c r="G60" s="14">
         <v>7000.0</v>
       </c>
-      <c r="H60" s="11" t="s">
-        <v>125</v>
-      </c>
-      <c r="I60" s="56"/>
-      <c r="J60" s="59"/>
+      <c r="H60" s="38">
+        <v>12.0</v>
+      </c>
+      <c r="I60" s="60"/>
+      <c r="J60" s="62"/>
     </row>
     <row r="61" ht="15.75" customHeight="1">
       <c r="A61" s="11">
@@ -7954,11 +7952,11 @@
       <c r="G61" s="14">
         <v>25000.0</v>
       </c>
-      <c r="H61" s="11" t="s">
-        <v>124</v>
-      </c>
-      <c r="I61" s="56"/>
-      <c r="J61" s="59"/>
+      <c r="H61" s="38">
+        <v>2.0</v>
+      </c>
+      <c r="I61" s="60"/>
+      <c r="J61" s="62"/>
     </row>
     <row r="62" ht="15.75" customHeight="1">
       <c r="A62" s="20"/>
@@ -7980,15 +7978,15 @@
     </row>
     <row r="64" ht="15.75" customHeight="1">
       <c r="A64" s="30" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="E64" s="6"/>
       <c r="F64" s="6"/>
       <c r="G64" s="20"/>
     </row>
     <row r="65" ht="15.75" customHeight="1">
-      <c r="A65" s="49" t="s">
-        <v>157</v>
+      <c r="A65" s="54" t="s">
+        <v>166</v>
       </c>
       <c r="B65" s="8" t="s">
         <v>62</v>
@@ -7996,11 +7994,11 @@
       <c r="C65" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="D65" s="50" t="s">
+      <c r="D65" s="55" t="s">
         <v>64</v>
       </c>
-      <c r="E65" s="51"/>
-      <c r="F65" s="58"/>
+      <c r="E65" s="56"/>
+      <c r="F65" s="61"/>
       <c r="G65" s="20"/>
     </row>
     <row r="66" ht="15.75" customHeight="1">
@@ -8013,11 +8011,11 @@
       <c r="C66" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="D66" s="60">
+      <c r="D66" s="63">
         <v>45780.0</v>
       </c>
-      <c r="E66" s="52"/>
-      <c r="F66" s="59"/>
+      <c r="E66" s="57"/>
+      <c r="F66" s="62"/>
       <c r="G66" s="20"/>
     </row>
     <row r="67" ht="15.75" customHeight="1">
@@ -8030,11 +8028,11 @@
       <c r="C67" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="D67" s="60">
+      <c r="D67" s="63">
         <v>45782.0</v>
       </c>
-      <c r="E67" s="52"/>
-      <c r="F67" s="59"/>
+      <c r="E67" s="57"/>
+      <c r="F67" s="62"/>
       <c r="G67" s="20"/>
     </row>
     <row r="68" ht="15.75" customHeight="1">
@@ -8047,11 +8045,11 @@
       <c r="C68" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="D68" s="60">
+      <c r="D68" s="63">
         <v>45781.0</v>
       </c>
-      <c r="E68" s="52"/>
-      <c r="F68" s="59"/>
+      <c r="E68" s="57"/>
+      <c r="F68" s="62"/>
       <c r="G68" s="20"/>
     </row>
     <row r="69" ht="15.75" customHeight="1">
@@ -8064,11 +8062,11 @@
       <c r="C69" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="D69" s="60">
+      <c r="D69" s="63">
         <v>45782.0</v>
       </c>
-      <c r="E69" s="52"/>
-      <c r="F69" s="59"/>
+      <c r="E69" s="57"/>
+      <c r="F69" s="62"/>
       <c r="G69" s="20"/>
     </row>
     <row r="70" ht="15.75" customHeight="1">
@@ -8081,11 +8079,11 @@
       <c r="C70" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="D70" s="60">
+      <c r="D70" s="63">
         <v>45781.0</v>
       </c>
-      <c r="E70" s="52"/>
-      <c r="F70" s="59"/>
+      <c r="E70" s="57"/>
+      <c r="F70" s="62"/>
       <c r="G70" s="20"/>
     </row>
     <row r="71" ht="15.75" customHeight="1">
@@ -8107,27 +8105,27 @@
       <c r="G72" s="20"/>
     </row>
     <row r="73" ht="15.75" customHeight="1">
-      <c r="A73" s="41" t="s">
-        <v>133</v>
-      </c>
-      <c r="E73" s="61"/>
+      <c r="A73" s="42" t="s">
+        <v>138</v>
+      </c>
+      <c r="E73" s="64"/>
       <c r="F73" s="6"/>
       <c r="G73" s="20"/>
     </row>
     <row r="74" ht="15.75" customHeight="1">
-      <c r="A74" s="49" t="s">
-        <v>158</v>
-      </c>
-      <c r="B74" s="40" t="s">
+      <c r="A74" s="54" t="s">
+        <v>167</v>
+      </c>
+      <c r="B74" s="35" t="s">
         <v>68</v>
       </c>
-      <c r="C74" s="40" t="s">
+      <c r="C74" s="35" t="s">
         <v>69</v>
       </c>
-      <c r="D74" s="57" t="s">
+      <c r="D74" s="65" t="s">
         <v>70</v>
       </c>
-      <c r="E74" s="51"/>
+      <c r="E74" s="56"/>
       <c r="F74" s="6"/>
       <c r="G74" s="20"/>
     </row>
@@ -8138,13 +8136,13 @@
       <c r="B75" s="39" t="s">
         <v>82</v>
       </c>
-      <c r="C75" s="42">
+      <c r="C75" s="43">
         <v>45949.0</v>
       </c>
-      <c r="D75" s="62">
+      <c r="D75" s="66">
         <v>45951.0</v>
       </c>
-      <c r="E75" s="52"/>
+      <c r="E75" s="57"/>
       <c r="F75" s="6"/>
       <c r="G75" s="20"/>
     </row>
@@ -8155,13 +8153,13 @@
       <c r="B76" s="39" t="s">
         <v>85</v>
       </c>
-      <c r="C76" s="42">
+      <c r="C76" s="43">
         <v>45950.0</v>
       </c>
-      <c r="D76" s="62">
+      <c r="D76" s="66">
         <v>45952.0</v>
       </c>
-      <c r="E76" s="52"/>
+      <c r="E76" s="57"/>
       <c r="F76" s="6"/>
       <c r="G76" s="20"/>
     </row>
@@ -8172,13 +8170,13 @@
       <c r="B77" s="39" t="s">
         <v>82</v>
       </c>
-      <c r="C77" s="42">
+      <c r="C77" s="43">
         <v>45943.0</v>
       </c>
-      <c r="D77" s="62">
+      <c r="D77" s="66">
         <v>45945.0</v>
       </c>
-      <c r="E77" s="52"/>
+      <c r="E77" s="57"/>
       <c r="F77" s="6"/>
       <c r="G77" s="20"/>
     </row>
@@ -8189,13 +8187,13 @@
       <c r="B78" s="39" t="s">
         <v>82</v>
       </c>
-      <c r="C78" s="42">
+      <c r="C78" s="43">
         <v>45954.0</v>
       </c>
-      <c r="D78" s="62">
+      <c r="D78" s="66">
         <v>45956.0</v>
       </c>
-      <c r="E78" s="52"/>
+      <c r="E78" s="57"/>
       <c r="F78" s="6"/>
       <c r="G78" s="20"/>
     </row>
@@ -8206,13 +8204,13 @@
       <c r="B79" s="39" t="s">
         <v>85</v>
       </c>
-      <c r="C79" s="42">
+      <c r="C79" s="43">
         <v>45955.0</v>
       </c>
-      <c r="D79" s="62">
+      <c r="D79" s="66">
         <v>45957.0</v>
       </c>
-      <c r="E79" s="52"/>
+      <c r="E79" s="57"/>
       <c r="F79" s="6"/>
       <c r="G79" s="20"/>
     </row>
@@ -8236,7 +8234,7 @@
     </row>
     <row r="82" ht="15.75" customHeight="1">
       <c r="A82" s="30" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="F82" s="6"/>
       <c r="G82" s="6"/>
@@ -8244,8 +8242,8 @@
       <c r="I82" s="6"/>
     </row>
     <row r="83" ht="15.75" customHeight="1">
-      <c r="A83" s="49" t="s">
-        <v>159</v>
+      <c r="A83" s="54" t="s">
+        <v>168</v>
       </c>
       <c r="B83" s="8" t="s">
         <v>9</v>
@@ -8256,13 +8254,13 @@
       <c r="D83" s="8" t="s">
         <v>73</v>
       </c>
-      <c r="E83" s="36" t="s">
+      <c r="E83" s="67" t="s">
         <v>74</v>
       </c>
-      <c r="F83" s="51"/>
-      <c r="G83" s="63"/>
-      <c r="H83" s="58"/>
-      <c r="I83" s="58"/>
+      <c r="F83" s="56"/>
+      <c r="G83" s="68"/>
+      <c r="H83" s="61"/>
+      <c r="I83" s="61"/>
     </row>
     <row r="84" ht="15.75" customHeight="1">
       <c r="A84" s="11">
@@ -8277,13 +8275,13 @@
       <c r="D84" s="16">
         <v>46316.0</v>
       </c>
-      <c r="E84" s="64">
+      <c r="E84" s="69">
         <v>16000.0</v>
       </c>
-      <c r="F84" s="52"/>
+      <c r="F84" s="57"/>
       <c r="G84" s="20"/>
       <c r="H84" s="20"/>
-      <c r="I84" s="59"/>
+      <c r="I84" s="62"/>
     </row>
     <row r="85" ht="15.75" customHeight="1">
       <c r="A85" s="11">
@@ -8298,13 +8296,13 @@
       <c r="D85" s="16">
         <v>46317.0</v>
       </c>
-      <c r="E85" s="64">
+      <c r="E85" s="69">
         <v>5500.0</v>
       </c>
-      <c r="F85" s="52"/>
+      <c r="F85" s="57"/>
       <c r="G85" s="20"/>
       <c r="H85" s="20"/>
-      <c r="I85" s="59"/>
+      <c r="I85" s="62"/>
     </row>
     <row r="86" ht="15.75" customHeight="1">
       <c r="A86" s="11">
@@ -8319,13 +8317,13 @@
       <c r="D86" s="16">
         <v>46310.0</v>
       </c>
-      <c r="E86" s="64">
+      <c r="E86" s="69">
         <v>75000.0</v>
       </c>
-      <c r="F86" s="52"/>
+      <c r="F86" s="57"/>
       <c r="G86" s="20"/>
       <c r="H86" s="20"/>
-      <c r="I86" s="59"/>
+      <c r="I86" s="62"/>
     </row>
     <row r="87" ht="15.75" customHeight="1">
       <c r="A87" s="11">
@@ -8340,13 +8338,13 @@
       <c r="D87" s="16">
         <v>46319.0</v>
       </c>
-      <c r="E87" s="64">
+      <c r="E87" s="69">
         <v>14000.0</v>
       </c>
-      <c r="F87" s="52"/>
+      <c r="F87" s="57"/>
       <c r="G87" s="20"/>
       <c r="H87" s="20"/>
-      <c r="I87" s="59"/>
+      <c r="I87" s="62"/>
     </row>
     <row r="88" ht="15.75" customHeight="1">
       <c r="A88" s="11">
@@ -8361,13 +8359,13 @@
       <c r="D88" s="16">
         <v>46312.0</v>
       </c>
-      <c r="E88" s="64">
+      <c r="E88" s="69">
         <v>175000.0</v>
       </c>
-      <c r="F88" s="52"/>
+      <c r="F88" s="57"/>
       <c r="G88" s="20"/>
       <c r="H88" s="20"/>
-      <c r="I88" s="59"/>
+      <c r="I88" s="62"/>
     </row>
     <row r="89" ht="15.75" customHeight="1">
       <c r="B89" s="20"/>
@@ -8387,15 +8385,15 @@
     </row>
     <row r="91" ht="15.75" customHeight="1">
       <c r="A91" s="32" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="E91" s="33"/>
       <c r="F91" s="33"/>
       <c r="G91" s="20"/>
     </row>
     <row r="92" ht="15.75" customHeight="1">
-      <c r="A92" s="49" t="s">
-        <v>160</v>
+      <c r="A92" s="54" t="s">
+        <v>169</v>
       </c>
       <c r="B92" s="8" t="s">
         <v>66</v>
@@ -8403,11 +8401,11 @@
       <c r="C92" s="8" t="s">
         <v>76</v>
       </c>
-      <c r="D92" s="36" t="s">
+      <c r="D92" s="67" t="s">
         <v>77</v>
       </c>
-      <c r="E92" s="51"/>
-      <c r="F92" s="58"/>
+      <c r="E92" s="56"/>
+      <c r="F92" s="61"/>
       <c r="G92" s="20"/>
     </row>
     <row r="93" ht="15.75" customHeight="1">
@@ -8420,11 +8418,11 @@
       <c r="C93" s="14">
         <v>8000.0</v>
       </c>
-      <c r="D93" s="64">
+      <c r="D93" s="69">
         <v>16000.0</v>
       </c>
-      <c r="E93" s="52"/>
-      <c r="F93" s="59"/>
+      <c r="E93" s="57"/>
+      <c r="F93" s="62"/>
       <c r="G93" s="20"/>
     </row>
     <row r="94" ht="15.75" customHeight="1">
@@ -8437,11 +8435,11 @@
       <c r="C94" s="14">
         <v>5500.0</v>
       </c>
-      <c r="D94" s="64">
+      <c r="D94" s="69">
         <v>5500.0</v>
       </c>
-      <c r="E94" s="52"/>
-      <c r="F94" s="59"/>
+      <c r="E94" s="57"/>
+      <c r="F94" s="62"/>
       <c r="G94" s="20"/>
     </row>
     <row r="95" ht="15.75" customHeight="1">
@@ -8454,11 +8452,11 @@
       <c r="C95" s="14">
         <v>15000.0</v>
       </c>
-      <c r="D95" s="64">
+      <c r="D95" s="69">
         <v>75000.0</v>
       </c>
-      <c r="E95" s="52"/>
-      <c r="F95" s="59"/>
+      <c r="E95" s="57"/>
+      <c r="F95" s="62"/>
       <c r="G95" s="20"/>
     </row>
     <row r="96" ht="15.75" customHeight="1">
@@ -8471,11 +8469,11 @@
       <c r="C96" s="14">
         <v>7000.0</v>
       </c>
-      <c r="D96" s="64">
+      <c r="D96" s="69">
         <v>14000.0</v>
       </c>
-      <c r="E96" s="52"/>
-      <c r="F96" s="59"/>
+      <c r="E96" s="57"/>
+      <c r="F96" s="62"/>
       <c r="G96" s="20"/>
     </row>
     <row r="97" ht="15.75" customHeight="1">
@@ -8488,11 +8486,11 @@
       <c r="C97" s="14">
         <v>25000.0</v>
       </c>
-      <c r="D97" s="64">
+      <c r="D97" s="69">
         <v>175000.0</v>
       </c>
-      <c r="E97" s="52"/>
-      <c r="F97" s="59"/>
+      <c r="E97" s="57"/>
+      <c r="F97" s="62"/>
       <c r="G97" s="20"/>
     </row>
     <row r="98" ht="15.75" customHeight="1">
@@ -8510,25 +8508,25 @@
       <c r="D99" s="19"/>
     </row>
     <row r="100" ht="15.75" customHeight="1">
-      <c r="A100" s="45" t="s">
-        <v>136</v>
-      </c>
-      <c r="E100" s="65"/>
+      <c r="A100" s="46" t="s">
+        <v>142</v>
+      </c>
+      <c r="E100" s="70"/>
     </row>
     <row r="101" ht="15.75" customHeight="1">
-      <c r="A101" s="49" t="s">
-        <v>161</v>
-      </c>
-      <c r="B101" s="40" t="s">
+      <c r="A101" s="54" t="s">
+        <v>170</v>
+      </c>
+      <c r="B101" s="35" t="s">
         <v>79</v>
       </c>
-      <c r="C101" s="40" t="s">
+      <c r="C101" s="35" t="s">
         <v>80</v>
       </c>
-      <c r="D101" s="57" t="s">
+      <c r="D101" s="65" t="s">
         <v>81</v>
       </c>
-      <c r="E101" s="53"/>
+      <c r="E101" s="51"/>
     </row>
     <row r="102" ht="15.75" customHeight="1">
       <c r="A102" s="11">
@@ -8543,7 +8541,7 @@
       <c r="D102" s="38">
         <v>3.219875122E9</v>
       </c>
-      <c r="E102" s="56"/>
+      <c r="E102" s="60"/>
     </row>
     <row r="103" ht="15.75" customHeight="1">
       <c r="A103" s="11">
@@ -8558,7 +8556,7 @@
       <c r="D103" s="38">
         <v>3.049157864E9</v>
       </c>
-      <c r="E103" s="56"/>
+      <c r="E103" s="60"/>
     </row>
     <row r="104" ht="15.75" customHeight="1">
       <c r="A104" s="11">
@@ -8573,7 +8571,7 @@
       <c r="D104" s="38">
         <v>3.153446592E9</v>
       </c>
-      <c r="E104" s="56"/>
+      <c r="E104" s="60"/>
     </row>
     <row r="105" ht="15.75" customHeight="1">
       <c r="A105" s="11">
@@ -8588,7 +8586,7 @@
       <c r="D105" s="38">
         <v>3.145597395E9</v>
       </c>
-      <c r="E105" s="56"/>
+      <c r="E105" s="60"/>
     </row>
     <row r="106" ht="15.75" customHeight="1">
       <c r="A106" s="11">
@@ -8600,10 +8598,10 @@
       <c r="C106" s="39">
         <v>3.108803029E9</v>
       </c>
-      <c r="D106" s="66">
+      <c r="D106" s="71">
         <v>3.108803029E9</v>
       </c>
-      <c r="E106" s="56"/>
+      <c r="E106" s="60"/>
     </row>
     <row r="107" ht="15.75" customHeight="1"/>
     <row r="108" ht="15.75" customHeight="1">
@@ -8613,8 +8611,8 @@
       <c r="D108" s="4"/>
     </row>
     <row r="109" ht="15.75" customHeight="1">
-      <c r="A109" s="67" t="s">
-        <v>137</v>
+      <c r="A109" s="72" t="s">
+        <v>143</v>
       </c>
       <c r="B109" s="28"/>
       <c r="C109" s="28"/>
@@ -8622,8 +8620,8 @@
       <c r="E109" s="6"/>
     </row>
     <row r="110" ht="15.75" customHeight="1">
-      <c r="A110" s="49" t="s">
-        <v>162</v>
+      <c r="A110" s="54" t="s">
+        <v>171</v>
       </c>
       <c r="B110" s="8" t="s">
         <v>92</v>
@@ -8631,10 +8629,10 @@
       <c r="C110" s="8" t="s">
         <v>93</v>
       </c>
-      <c r="D110" s="68" t="s">
+      <c r="D110" s="73" t="s">
         <v>94</v>
       </c>
-      <c r="E110" s="53"/>
+      <c r="E110" s="51"/>
     </row>
     <row r="111" ht="15.75" customHeight="1">
       <c r="A111" s="11">
@@ -8649,7 +8647,7 @@
       <c r="D111" s="38">
         <v>3.219875122E9</v>
       </c>
-      <c r="E111" s="56"/>
+      <c r="E111" s="60"/>
     </row>
     <row r="112" ht="15.75" customHeight="1">
       <c r="A112" s="11">
@@ -8664,7 +8662,7 @@
       <c r="D112" s="38">
         <v>3.049157864E9</v>
       </c>
-      <c r="E112" s="56"/>
+      <c r="E112" s="60"/>
     </row>
     <row r="113" ht="15.75" customHeight="1">
       <c r="A113" s="11">
@@ -8679,7 +8677,7 @@
       <c r="D113" s="38">
         <v>3.153446592E9</v>
       </c>
-      <c r="E113" s="56"/>
+      <c r="E113" s="60"/>
     </row>
     <row r="114" ht="15.75" customHeight="1">
       <c r="A114" s="11">
@@ -8694,7 +8692,7 @@
       <c r="D114" s="38">
         <v>3.145597395E9</v>
       </c>
-      <c r="E114" s="56"/>
+      <c r="E114" s="60"/>
     </row>
     <row r="115" ht="15.75" customHeight="1">
       <c r="A115" s="11">
@@ -8709,7 +8707,7 @@
       <c r="D115" s="38">
         <v>3.108803029E9</v>
       </c>
-      <c r="E115" s="56"/>
+      <c r="E115" s="60"/>
     </row>
     <row r="116" ht="15.75" customHeight="1">
       <c r="A116" s="19"/>
@@ -8725,118 +8723,118 @@
       <c r="E117" s="20"/>
     </row>
     <row r="118" ht="15.75" customHeight="1">
-      <c r="A118" s="41" t="s">
-        <v>138</v>
-      </c>
-      <c r="F118" s="61"/>
+      <c r="A118" s="42" t="s">
+        <v>144</v>
+      </c>
+      <c r="F118" s="64"/>
     </row>
     <row r="119" ht="15.75" customHeight="1">
-      <c r="A119" s="49" t="s">
-        <v>163</v>
-      </c>
-      <c r="B119" s="40" t="s">
+      <c r="A119" s="54" t="s">
+        <v>172</v>
+      </c>
+      <c r="B119" s="35" t="s">
         <v>96</v>
       </c>
-      <c r="C119" s="40" t="s">
+      <c r="C119" s="35" t="s">
         <v>97</v>
       </c>
-      <c r="D119" s="40" t="s">
-        <v>98</v>
-      </c>
-      <c r="E119" s="69" t="s">
+      <c r="D119" s="35" t="s">
+        <v>145</v>
+      </c>
+      <c r="E119" s="50" t="s">
         <v>99</v>
       </c>
-      <c r="F119" s="51"/>
+      <c r="F119" s="56"/>
     </row>
     <row r="120" ht="15.75" customHeight="1">
       <c r="A120" s="11">
         <v>1.0</v>
       </c>
-      <c r="B120" s="42">
+      <c r="B120" s="43">
         <v>45987.0</v>
       </c>
       <c r="C120" s="11" t="s">
-        <v>139</v>
+        <v>146</v>
       </c>
       <c r="D120" s="39">
         <v>8.0</v>
       </c>
-      <c r="E120" s="70" t="s">
+      <c r="E120" s="52" t="s">
         <v>27</v>
       </c>
-      <c r="F120" s="52"/>
+      <c r="F120" s="57"/>
     </row>
     <row r="121" ht="15.75" customHeight="1">
       <c r="A121" s="11">
         <v>2.0</v>
       </c>
-      <c r="B121" s="42">
+      <c r="B121" s="43">
         <v>45988.0</v>
       </c>
       <c r="C121" s="11" t="s">
-        <v>139</v>
+        <v>146</v>
       </c>
       <c r="D121" s="39">
         <v>6.0</v>
       </c>
-      <c r="E121" s="70" t="s">
+      <c r="E121" s="52" t="s">
         <v>27</v>
       </c>
-      <c r="F121" s="52"/>
+      <c r="F121" s="57"/>
     </row>
     <row r="122" ht="15.75" customHeight="1">
       <c r="A122" s="11">
         <v>3.0</v>
       </c>
-      <c r="B122" s="42">
+      <c r="B122" s="43">
         <v>45943.0</v>
       </c>
       <c r="C122" s="11" t="s">
-        <v>140</v>
+        <v>147</v>
       </c>
       <c r="D122" s="39">
         <v>3.0</v>
       </c>
-      <c r="E122" s="70" t="s">
+      <c r="E122" s="52" t="s">
         <v>27</v>
       </c>
-      <c r="F122" s="52"/>
+      <c r="F122" s="57"/>
     </row>
     <row r="123" ht="15.75" customHeight="1">
       <c r="A123" s="11">
         <v>4.0</v>
       </c>
-      <c r="B123" s="42">
+      <c r="B123" s="43">
         <v>45954.0</v>
       </c>
       <c r="C123" s="11" t="s">
-        <v>139</v>
+        <v>146</v>
       </c>
       <c r="D123" s="39">
         <v>5.0</v>
       </c>
-      <c r="E123" s="70" t="s">
+      <c r="E123" s="52" t="s">
         <v>27</v>
       </c>
-      <c r="F123" s="52"/>
+      <c r="F123" s="57"/>
     </row>
     <row r="124" ht="15.75" customHeight="1">
       <c r="A124" s="11">
         <v>5.0</v>
       </c>
-      <c r="B124" s="48">
+      <c r="B124" s="49">
         <v>45920.0</v>
       </c>
       <c r="C124" s="11" t="s">
-        <v>140</v>
+        <v>147</v>
       </c>
       <c r="D124" s="39">
         <v>2.0</v>
       </c>
-      <c r="E124" s="70" t="s">
+      <c r="E124" s="52" t="s">
         <v>27</v>
       </c>
-      <c r="F124" s="52"/>
+      <c r="F124" s="57"/>
     </row>
     <row r="125" ht="15.75" customHeight="1"/>
     <row r="126" ht="15.75" customHeight="1">
@@ -8846,25 +8844,25 @@
       <c r="D126" s="19"/>
     </row>
     <row r="127" ht="15.75" customHeight="1">
-      <c r="A127" s="45" t="s">
-        <v>141</v>
-      </c>
-      <c r="E127" s="65"/>
+      <c r="A127" s="46" t="s">
+        <v>148</v>
+      </c>
+      <c r="E127" s="70"/>
     </row>
     <row r="128" ht="15.75" customHeight="1">
-      <c r="A128" s="49" t="s">
-        <v>164</v>
-      </c>
-      <c r="B128" s="40" t="s">
+      <c r="A128" s="54" t="s">
+        <v>173</v>
+      </c>
+      <c r="B128" s="35" t="s">
         <v>101</v>
       </c>
-      <c r="C128" s="40" t="s">
+      <c r="C128" s="35" t="s">
         <v>102</v>
       </c>
-      <c r="D128" s="57" t="s">
+      <c r="D128" s="65" t="s">
         <v>103</v>
       </c>
-      <c r="E128" s="51"/>
+      <c r="E128" s="56"/>
     </row>
     <row r="129" ht="15.75" customHeight="1">
       <c r="A129" s="11">
@@ -8873,13 +8871,13 @@
       <c r="B129" s="39" t="s">
         <v>27</v>
       </c>
-      <c r="C129" s="42">
+      <c r="C129" s="43">
         <v>45982.0</v>
       </c>
       <c r="D129" s="11" t="s">
-        <v>142</v>
-      </c>
-      <c r="E129" s="52"/>
+        <v>149</v>
+      </c>
+      <c r="E129" s="57"/>
     </row>
     <row r="130" ht="15.75" customHeight="1">
       <c r="A130" s="11">
@@ -8888,13 +8886,13 @@
       <c r="B130" s="39" t="s">
         <v>27</v>
       </c>
-      <c r="C130" s="42">
+      <c r="C130" s="43">
         <v>45983.0</v>
       </c>
       <c r="D130" s="11" t="s">
-        <v>142</v>
-      </c>
-      <c r="E130" s="52"/>
+        <v>149</v>
+      </c>
+      <c r="E130" s="57"/>
     </row>
     <row r="131" ht="15.75" customHeight="1">
       <c r="A131" s="11">
@@ -8903,13 +8901,13 @@
       <c r="B131" s="39" t="s">
         <v>27</v>
       </c>
-      <c r="C131" s="42">
+      <c r="C131" s="43">
         <v>45976.0</v>
       </c>
       <c r="D131" s="11" t="s">
-        <v>142</v>
-      </c>
-      <c r="E131" s="52"/>
+        <v>149</v>
+      </c>
+      <c r="E131" s="57"/>
     </row>
     <row r="132" ht="15.75" customHeight="1">
       <c r="A132" s="11">
@@ -8918,13 +8916,13 @@
       <c r="B132" s="39" t="s">
         <v>27</v>
       </c>
-      <c r="C132" s="42">
+      <c r="C132" s="43">
         <v>45987.0</v>
       </c>
       <c r="D132" s="11" t="s">
-        <v>142</v>
-      </c>
-      <c r="E132" s="52"/>
+        <v>149</v>
+      </c>
+      <c r="E132" s="57"/>
     </row>
     <row r="133" ht="15.75" customHeight="1">
       <c r="A133" s="11">
@@ -8933,13 +8931,13 @@
       <c r="B133" s="39" t="s">
         <v>27</v>
       </c>
-      <c r="C133" s="42">
+      <c r="C133" s="43">
         <v>45988.0</v>
       </c>
-      <c r="D133" s="71" t="s">
-        <v>142</v>
-      </c>
-      <c r="E133" s="52"/>
+      <c r="D133" s="74" t="s">
+        <v>149</v>
+      </c>
+      <c r="E133" s="57"/>
     </row>
     <row r="134" ht="15.75" customHeight="1"/>
     <row r="135" ht="15.75" customHeight="1">
@@ -8950,12 +8948,12 @@
     </row>
     <row r="136" ht="15.75" customHeight="1">
       <c r="A136" s="30" t="s">
-        <v>143</v>
+        <v>150</v>
       </c>
     </row>
     <row r="137" ht="15.75" customHeight="1">
-      <c r="A137" s="49" t="s">
-        <v>165</v>
+      <c r="A137" s="54" t="s">
+        <v>174</v>
       </c>
       <c r="B137" s="8" t="s">
         <v>3</v>
@@ -8963,11 +8961,11 @@
       <c r="C137" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="D137" s="50" t="s">
+      <c r="D137" s="55" t="s">
         <v>101</v>
       </c>
-      <c r="E137" s="55" t="s">
-        <v>144</v>
+      <c r="E137" s="59" t="s">
+        <v>151</v>
       </c>
     </row>
     <row r="138" ht="15.75" customHeight="1">
@@ -9835,19 +9833,19 @@
     <mergeCell ref="B8:H8"/>
     <mergeCell ref="A12:B12"/>
     <mergeCell ref="A19:D19"/>
-    <mergeCell ref="A82:E82"/>
     <mergeCell ref="A91:D91"/>
     <mergeCell ref="A100:D100"/>
     <mergeCell ref="A109:D109"/>
     <mergeCell ref="A118:E118"/>
     <mergeCell ref="A127:D127"/>
     <mergeCell ref="A136:E136"/>
+    <mergeCell ref="A28:F28"/>
+    <mergeCell ref="A37:C37"/>
     <mergeCell ref="A46:B46"/>
+    <mergeCell ref="A55:H55"/>
     <mergeCell ref="A64:D64"/>
     <mergeCell ref="A73:D73"/>
-    <mergeCell ref="A28:F28"/>
-    <mergeCell ref="A37:C37"/>
-    <mergeCell ref="A55:H55"/>
+    <mergeCell ref="A82:E82"/>
   </mergeCells>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -9866,8 +9864,7 @@
     <col customWidth="1" min="1" max="1" width="21.88"/>
     <col customWidth="1" min="2" max="2" width="15.25"/>
     <col customWidth="1" min="3" max="3" width="20.25"/>
-    <col customWidth="1" min="4" max="4" width="17.13"/>
-    <col customWidth="1" min="5" max="5" width="20.5"/>
+    <col customWidth="1" min="4" max="5" width="20.5"/>
     <col customWidth="1" min="6" max="6" width="17.88"/>
     <col customWidth="1" min="7" max="7" width="18.75"/>
     <col customWidth="1" min="8" max="8" width="14.13"/>
@@ -9876,8 +9873,8 @@
   </cols>
   <sheetData>
     <row r="1" ht="15.75" customHeight="1">
-      <c r="A1" s="72" t="s">
-        <v>166</v>
+      <c r="A1" s="75" t="s">
+        <v>175</v>
       </c>
       <c r="B1" s="4"/>
       <c r="C1" s="4"/>
@@ -9893,7 +9890,7 @@
     </row>
     <row r="2" ht="15.75" customHeight="1">
       <c r="A2" s="3" t="s">
-        <v>167</v>
+        <v>176</v>
       </c>
     </row>
     <row r="3" ht="15.75" customHeight="1">
@@ -9927,7 +9924,7 @@
     <row r="5" ht="15.75" customHeight="1">
       <c r="A5" s="4"/>
       <c r="B5" s="22" t="s">
-        <v>168</v>
+        <v>177</v>
       </c>
       <c r="C5" s="23"/>
       <c r="D5" s="23"/>
@@ -9943,7 +9940,7 @@
     <row r="6" ht="15.75" customHeight="1">
       <c r="A6" s="4"/>
       <c r="B6" s="25" t="s">
-        <v>169</v>
+        <v>178</v>
       </c>
       <c r="H6" s="26"/>
       <c r="I6" s="4"/>
@@ -9954,7 +9951,7 @@
     <row r="7" ht="15.75" customHeight="1">
       <c r="A7" s="4"/>
       <c r="B7" s="25" t="s">
-        <v>170</v>
+        <v>179</v>
       </c>
       <c r="H7" s="26"/>
       <c r="I7" s="4"/>
@@ -9965,7 +9962,7 @@
     <row r="8" ht="15.75" customHeight="1">
       <c r="A8" s="4"/>
       <c r="B8" s="27" t="s">
-        <v>171</v>
+        <v>180</v>
       </c>
       <c r="C8" s="28"/>
       <c r="D8" s="28"/>
@@ -10013,8 +10010,8 @@
       <c r="G12" s="4"/>
     </row>
     <row r="13" ht="15.75" customHeight="1">
-      <c r="A13" s="49" t="s">
-        <v>150</v>
+      <c r="A13" s="76" t="s">
+        <v>157</v>
       </c>
       <c r="B13" s="8" t="s">
         <v>2</v>
@@ -10090,117 +10087,117 @@
       <c r="G19" s="20"/>
     </row>
     <row r="20" ht="15.75" customHeight="1">
-      <c r="A20" s="49" t="s">
-        <v>151</v>
-      </c>
-      <c r="B20" s="8" t="s">
+      <c r="A20" s="76" t="s">
+        <v>158</v>
+      </c>
+      <c r="B20" s="77" t="s">
+        <v>181</v>
+      </c>
+      <c r="C20" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="C20" s="8" t="s">
+      <c r="D20" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="D20" s="8" t="s">
+      <c r="E20" s="55" t="s">
         <v>5</v>
       </c>
-      <c r="E20" s="73" t="s">
-        <v>172</v>
-      </c>
-      <c r="F20" s="20"/>
+      <c r="F20" s="56"/>
       <c r="G20" s="20"/>
     </row>
     <row r="21" ht="15.75" customHeight="1">
       <c r="A21" s="11">
         <v>1.0</v>
       </c>
-      <c r="B21" s="11" t="s">
+      <c r="B21" s="11">
+        <v>1.0</v>
+      </c>
+      <c r="C21" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="C21" s="11" t="s">
+      <c r="D21" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="D21" s="11" t="s">
+      <c r="E21" s="38" t="s">
         <v>22</v>
       </c>
-      <c r="E21" s="11">
-        <v>1.0</v>
-      </c>
-      <c r="F21" s="20"/>
+      <c r="F21" s="57"/>
       <c r="G21" s="20"/>
     </row>
     <row r="22" ht="15.75" customHeight="1">
       <c r="A22" s="11">
         <v>2.0</v>
       </c>
-      <c r="B22" s="11" t="s">
+      <c r="B22" s="11">
+        <v>2.0</v>
+      </c>
+      <c r="C22" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="C22" s="11" t="s">
+      <c r="D22" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="D22" s="11" t="s">
+      <c r="E22" s="38" t="s">
         <v>31</v>
       </c>
-      <c r="E22" s="11">
-        <v>2.0</v>
-      </c>
-      <c r="F22" s="20"/>
+      <c r="F22" s="57"/>
       <c r="G22" s="20"/>
     </row>
     <row r="23" ht="15.75" customHeight="1">
       <c r="A23" s="11">
         <v>3.0</v>
       </c>
-      <c r="B23" s="11" t="s">
+      <c r="B23" s="11">
+        <v>3.0</v>
+      </c>
+      <c r="C23" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="C23" s="11" t="s">
+      <c r="D23" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="D23" s="11" t="s">
+      <c r="E23" s="38" t="s">
         <v>39</v>
       </c>
-      <c r="E23" s="11">
-        <v>3.0</v>
-      </c>
-      <c r="F23" s="20"/>
+      <c r="F23" s="57"/>
       <c r="G23" s="20"/>
     </row>
     <row r="24" ht="15.75" customHeight="1">
       <c r="A24" s="11">
         <v>4.0</v>
       </c>
-      <c r="B24" s="11" t="s">
+      <c r="B24" s="11">
+        <v>1.0</v>
+      </c>
+      <c r="C24" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="C24" s="11" t="s">
+      <c r="D24" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="D24" s="11" t="s">
+      <c r="E24" s="38" t="s">
         <v>47</v>
       </c>
-      <c r="E24" s="47">
-        <v>1.0</v>
-      </c>
-      <c r="F24" s="20"/>
+      <c r="F24" s="51"/>
       <c r="G24" s="20"/>
     </row>
     <row r="25" ht="15.75" customHeight="1">
       <c r="A25" s="11">
         <v>5.0</v>
       </c>
-      <c r="B25" s="11" t="s">
+      <c r="B25" s="11">
+        <v>1.0</v>
+      </c>
+      <c r="C25" s="11" t="s">
         <v>54</v>
       </c>
-      <c r="C25" s="11" t="s">
+      <c r="D25" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="D25" s="11" t="s">
+      <c r="E25" s="38" t="s">
         <v>56</v>
       </c>
-      <c r="E25" s="47">
-        <v>1.0</v>
-      </c>
-      <c r="F25" s="20"/>
+      <c r="F25" s="51"/>
       <c r="G25" s="20"/>
     </row>
     <row r="26" ht="15.75" customHeight="1">
@@ -10225,29 +10222,30 @@
       <c r="A28" s="32" t="s">
         <v>121</v>
       </c>
-      <c r="G28" s="33"/>
     </row>
     <row r="29" ht="15.75" customHeight="1">
-      <c r="A29" s="54" t="s">
-        <v>152</v>
-      </c>
-      <c r="B29" s="73" t="s">
-        <v>173</v>
-      </c>
-      <c r="C29" s="40" t="s">
-        <v>174</v>
+      <c r="A29" s="78" t="s">
+        <v>159</v>
+      </c>
+      <c r="B29" s="54" t="s">
+        <v>182</v>
+      </c>
+      <c r="C29" s="35" t="s">
+        <v>122</v>
       </c>
       <c r="D29" s="8" t="s">
-        <v>122</v>
-      </c>
-      <c r="E29" s="40" t="s">
-        <v>175</v>
-      </c>
-      <c r="F29" s="57" t="s">
-        <v>176</v>
-      </c>
-      <c r="G29" s="52"/>
-      <c r="H29" s="74"/>
+        <v>123</v>
+      </c>
+      <c r="E29" s="35" t="s">
+        <v>160</v>
+      </c>
+      <c r="F29" s="65" t="s">
+        <v>161</v>
+      </c>
+      <c r="G29" s="8" t="s">
+        <v>124</v>
+      </c>
+      <c r="H29" s="79"/>
     </row>
     <row r="30" ht="15.75" customHeight="1">
       <c r="A30" s="37">
@@ -10268,8 +10266,10 @@
       <c r="F30" s="38">
         <v>3.595789634E9</v>
       </c>
-      <c r="G30" s="52"/>
-      <c r="H30" s="74"/>
+      <c r="G30" s="11" t="s">
+        <v>125</v>
+      </c>
+      <c r="H30" s="79"/>
     </row>
     <row r="31" ht="15.75" customHeight="1">
       <c r="A31" s="37">
@@ -10290,8 +10290,10 @@
       <c r="F31" s="38">
         <v>3.258964851E9</v>
       </c>
-      <c r="G31" s="52"/>
-      <c r="H31" s="74"/>
+      <c r="G31" s="11" t="s">
+        <v>125</v>
+      </c>
+      <c r="H31" s="79"/>
     </row>
     <row r="32" ht="15.75" customHeight="1">
       <c r="A32" s="37">
@@ -10312,8 +10314,10 @@
       <c r="F32" s="38">
         <v>3.548954628E9</v>
       </c>
-      <c r="G32" s="52"/>
-      <c r="H32" s="74"/>
+      <c r="G32" s="11" t="s">
+        <v>125</v>
+      </c>
+      <c r="H32" s="79"/>
     </row>
     <row r="33" ht="15.75" customHeight="1">
       <c r="A33" s="37">
@@ -10334,8 +10338,10 @@
       <c r="F33" s="38">
         <v>3.286347687E9</v>
       </c>
-      <c r="G33" s="52"/>
-      <c r="H33" s="74"/>
+      <c r="G33" s="11" t="s">
+        <v>126</v>
+      </c>
+      <c r="H33" s="79"/>
     </row>
     <row r="34" ht="15.75" customHeight="1">
       <c r="A34" s="37">
@@ -10356,8 +10362,10 @@
       <c r="F34" s="38">
         <v>3.289465237E9</v>
       </c>
-      <c r="G34" s="52"/>
-      <c r="H34" s="74"/>
+      <c r="G34" s="11" t="s">
+        <v>125</v>
+      </c>
+      <c r="H34" s="79"/>
     </row>
     <row r="35" ht="15.75" customHeight="1">
       <c r="A35" s="20"/>
@@ -10379,26 +10387,26 @@
     </row>
     <row r="37" ht="15.75" customHeight="1">
       <c r="A37" s="30" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="E37" s="20"/>
       <c r="F37" s="20"/>
       <c r="G37" s="20"/>
     </row>
     <row r="38" ht="15.75" customHeight="1">
-      <c r="A38" s="49" t="s">
-        <v>153</v>
-      </c>
-      <c r="B38" s="75" t="s">
-        <v>177</v>
+      <c r="A38" s="76" t="s">
+        <v>162</v>
+      </c>
+      <c r="B38" s="58" t="s">
+        <v>183</v>
       </c>
       <c r="C38" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="D38" s="50" t="s">
+      <c r="D38" s="55" t="s">
         <v>12</v>
       </c>
-      <c r="E38" s="53"/>
+      <c r="E38" s="51"/>
       <c r="F38" s="20"/>
       <c r="G38" s="20"/>
     </row>
@@ -10415,7 +10423,7 @@
       <c r="D39" s="38">
         <v>51.22</v>
       </c>
-      <c r="E39" s="56"/>
+      <c r="E39" s="60"/>
       <c r="F39" s="20"/>
       <c r="G39" s="20"/>
     </row>
@@ -10432,7 +10440,7 @@
       <c r="D40" s="38" t="s">
         <v>34</v>
       </c>
-      <c r="E40" s="56"/>
+      <c r="E40" s="60"/>
       <c r="F40" s="20"/>
       <c r="G40" s="20"/>
     </row>
@@ -10449,7 +10457,7 @@
       <c r="D41" s="38" t="s">
         <v>42</v>
       </c>
-      <c r="E41" s="56"/>
+      <c r="E41" s="60"/>
       <c r="F41" s="20"/>
       <c r="G41" s="20"/>
     </row>
@@ -10466,7 +10474,7 @@
       <c r="D42" s="38" t="s">
         <v>51</v>
       </c>
-      <c r="E42" s="56"/>
+      <c r="E42" s="60"/>
       <c r="F42" s="20"/>
       <c r="G42" s="20"/>
     </row>
@@ -10483,7 +10491,7 @@
       <c r="D43" s="38">
         <v>30.29</v>
       </c>
-      <c r="E43" s="56"/>
+      <c r="E43" s="60"/>
       <c r="F43" s="20"/>
       <c r="G43" s="20"/>
     </row>
@@ -10507,7 +10515,7 @@
     </row>
     <row r="46" ht="15.75" customHeight="1">
       <c r="A46" s="30" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C46" s="20"/>
       <c r="D46" s="20"/>
@@ -10516,11 +10524,11 @@
       <c r="G46" s="20"/>
     </row>
     <row r="47" ht="15.75" customHeight="1">
-      <c r="A47" s="49" t="s">
-        <v>154</v>
-      </c>
-      <c r="B47" s="40" t="s">
-        <v>128</v>
+      <c r="A47" s="76" t="s">
+        <v>163</v>
+      </c>
+      <c r="B47" s="35" t="s">
+        <v>129</v>
       </c>
       <c r="C47" s="20"/>
       <c r="D47" s="20"/>
@@ -10613,42 +10621,42 @@
     </row>
     <row r="55" ht="15.75" customHeight="1">
       <c r="A55" s="30" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
     </row>
     <row r="56" ht="15.75" customHeight="1">
-      <c r="A56" s="49" t="s">
-        <v>155</v>
-      </c>
-      <c r="B56" s="75" t="s">
-        <v>177</v>
-      </c>
-      <c r="C56" s="73" t="s">
-        <v>178</v>
-      </c>
-      <c r="D56" s="40" t="s">
-        <v>179</v>
-      </c>
-      <c r="E56" s="40" t="s">
-        <v>130</v>
-      </c>
-      <c r="F56" s="40" t="s">
-        <v>180</v>
-      </c>
-      <c r="G56" s="40" t="s">
-        <v>181</v>
-      </c>
-      <c r="H56" s="40" t="s">
-        <v>182</v>
-      </c>
-      <c r="I56" s="40" t="s">
+      <c r="A56" s="76" t="s">
+        <v>164</v>
+      </c>
+      <c r="B56" s="58" t="s">
         <v>183</v>
       </c>
-      <c r="J56" s="57" t="s">
-        <v>156</v>
-      </c>
-      <c r="K56" s="53"/>
-      <c r="L56" s="58"/>
+      <c r="C56" s="54" t="s">
+        <v>184</v>
+      </c>
+      <c r="D56" s="35" t="s">
+        <v>165</v>
+      </c>
+      <c r="E56" s="35" t="s">
+        <v>131</v>
+      </c>
+      <c r="F56" s="35" t="s">
+        <v>132</v>
+      </c>
+      <c r="G56" s="35" t="s">
+        <v>133</v>
+      </c>
+      <c r="H56" s="35" t="s">
+        <v>134</v>
+      </c>
+      <c r="I56" s="35" t="s">
+        <v>135</v>
+      </c>
+      <c r="J56" s="65" t="s">
+        <v>136</v>
+      </c>
+      <c r="K56" s="51"/>
+      <c r="L56" s="61"/>
     </row>
     <row r="57" ht="15.75" customHeight="1">
       <c r="A57" s="11">
@@ -10681,8 +10689,8 @@
       <c r="J57" s="38">
         <v>7.0</v>
       </c>
-      <c r="K57" s="56"/>
-      <c r="L57" s="59"/>
+      <c r="K57" s="60"/>
+      <c r="L57" s="62"/>
     </row>
     <row r="58" ht="15.75" customHeight="1">
       <c r="A58" s="11">
@@ -10715,8 +10723,8 @@
       <c r="J58" s="38">
         <v>9.0</v>
       </c>
-      <c r="K58" s="56"/>
-      <c r="L58" s="59"/>
+      <c r="K58" s="60"/>
+      <c r="L58" s="62"/>
     </row>
     <row r="59" ht="15.75" customHeight="1">
       <c r="A59" s="11">
@@ -10749,8 +10757,8 @@
       <c r="J59" s="38">
         <v>4.0</v>
       </c>
-      <c r="K59" s="56"/>
-      <c r="L59" s="59"/>
+      <c r="K59" s="60"/>
+      <c r="L59" s="62"/>
     </row>
     <row r="60" ht="15.75" customHeight="1">
       <c r="A60" s="11">
@@ -10783,8 +10791,8 @@
       <c r="J60" s="38">
         <v>12.0</v>
       </c>
-      <c r="K60" s="56"/>
-      <c r="L60" s="59"/>
+      <c r="K60" s="60"/>
+      <c r="L60" s="62"/>
     </row>
     <row r="61" ht="15.75" customHeight="1">
       <c r="A61" s="11">
@@ -10817,8 +10825,8 @@
       <c r="J61" s="38">
         <v>2.0</v>
       </c>
-      <c r="K61" s="56"/>
-      <c r="L61" s="59"/>
+      <c r="K61" s="60"/>
+      <c r="L61" s="62"/>
     </row>
     <row r="62" ht="15.75" customHeight="1">
       <c r="A62" s="20"/>
@@ -10840,19 +10848,19 @@
     </row>
     <row r="64" ht="15.75" customHeight="1">
       <c r="A64" s="30" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="G64" s="20"/>
     </row>
     <row r="65" ht="15.75" customHeight="1">
-      <c r="A65" s="49" t="s">
-        <v>157</v>
-      </c>
-      <c r="B65" s="73" t="s">
-        <v>173</v>
-      </c>
-      <c r="C65" s="73" t="s">
-        <v>184</v>
+      <c r="A65" s="76" t="s">
+        <v>166</v>
+      </c>
+      <c r="B65" s="54" t="s">
+        <v>182</v>
+      </c>
+      <c r="C65" s="54" t="s">
+        <v>185</v>
       </c>
       <c r="D65" s="8" t="s">
         <v>62</v>
@@ -10860,11 +10868,11 @@
       <c r="E65" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="F65" s="50" t="s">
+      <c r="F65" s="55" t="s">
         <v>64</v>
       </c>
-      <c r="G65" s="51"/>
-      <c r="H65" s="58"/>
+      <c r="G65" s="56"/>
+      <c r="H65" s="61"/>
     </row>
     <row r="66" ht="15.75" customHeight="1">
       <c r="A66" s="11">
@@ -10882,11 +10890,11 @@
       <c r="E66" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="F66" s="60">
+      <c r="F66" s="63">
         <v>45780.0</v>
       </c>
-      <c r="G66" s="52"/>
-      <c r="H66" s="59"/>
+      <c r="G66" s="57"/>
+      <c r="H66" s="62"/>
     </row>
     <row r="67" ht="15.75" customHeight="1">
       <c r="A67" s="11">
@@ -10904,11 +10912,11 @@
       <c r="E67" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="F67" s="60">
+      <c r="F67" s="63">
         <v>45782.0</v>
       </c>
-      <c r="G67" s="52"/>
-      <c r="H67" s="59"/>
+      <c r="G67" s="57"/>
+      <c r="H67" s="62"/>
     </row>
     <row r="68" ht="15.75" customHeight="1">
       <c r="A68" s="11">
@@ -10926,11 +10934,11 @@
       <c r="E68" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="F68" s="60">
+      <c r="F68" s="63">
         <v>45781.0</v>
       </c>
-      <c r="G68" s="52"/>
-      <c r="H68" s="59"/>
+      <c r="G68" s="57"/>
+      <c r="H68" s="62"/>
     </row>
     <row r="69" ht="15.75" customHeight="1">
       <c r="A69" s="11">
@@ -10948,11 +10956,11 @@
       <c r="E69" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="F69" s="60">
+      <c r="F69" s="63">
         <v>45782.0</v>
       </c>
-      <c r="G69" s="52"/>
-      <c r="H69" s="59"/>
+      <c r="G69" s="57"/>
+      <c r="H69" s="62"/>
     </row>
     <row r="70" ht="15.75" customHeight="1">
       <c r="A70" s="11">
@@ -10970,11 +10978,11 @@
       <c r="E70" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="F70" s="60">
+      <c r="F70" s="63">
         <v>45781.0</v>
       </c>
-      <c r="G70" s="52"/>
-      <c r="H70" s="59"/>
+      <c r="G70" s="57"/>
+      <c r="H70" s="62"/>
     </row>
     <row r="71" ht="15.75" customHeight="1">
       <c r="A71" s="6"/>
@@ -10995,29 +11003,29 @@
       <c r="G72" s="20"/>
     </row>
     <row r="73" ht="15.75" customHeight="1">
-      <c r="A73" s="41" t="s">
-        <v>133</v>
+      <c r="A73" s="42" t="s">
+        <v>138</v>
       </c>
       <c r="F73" s="6"/>
       <c r="G73" s="20"/>
     </row>
     <row r="74" ht="15.75" customHeight="1">
-      <c r="A74" s="49" t="s">
-        <v>158</v>
-      </c>
-      <c r="B74" s="73" t="s">
-        <v>185</v>
-      </c>
-      <c r="C74" s="40" t="s">
+      <c r="A74" s="76" t="s">
+        <v>167</v>
+      </c>
+      <c r="B74" s="54" t="s">
+        <v>186</v>
+      </c>
+      <c r="C74" s="35" t="s">
         <v>68</v>
       </c>
-      <c r="D74" s="40" t="s">
+      <c r="D74" s="35" t="s">
         <v>69</v>
       </c>
-      <c r="E74" s="57" t="s">
+      <c r="E74" s="65" t="s">
         <v>70</v>
       </c>
-      <c r="F74" s="51"/>
+      <c r="F74" s="56"/>
       <c r="G74" s="20"/>
     </row>
     <row r="75" ht="15.75" customHeight="1">
@@ -11030,13 +11038,13 @@
       <c r="C75" s="39" t="s">
         <v>82</v>
       </c>
-      <c r="D75" s="42">
+      <c r="D75" s="43">
         <v>45949.0</v>
       </c>
-      <c r="E75" s="62">
+      <c r="E75" s="66">
         <v>45951.0</v>
       </c>
-      <c r="F75" s="52"/>
+      <c r="F75" s="57"/>
       <c r="G75" s="20"/>
     </row>
     <row r="76" ht="15.75" customHeight="1">
@@ -11049,13 +11057,13 @@
       <c r="C76" s="39" t="s">
         <v>85</v>
       </c>
-      <c r="D76" s="42">
+      <c r="D76" s="43">
         <v>45950.0</v>
       </c>
-      <c r="E76" s="62">
+      <c r="E76" s="66">
         <v>45952.0</v>
       </c>
-      <c r="F76" s="52"/>
+      <c r="F76" s="57"/>
       <c r="G76" s="20"/>
     </row>
     <row r="77" ht="15.75" customHeight="1">
@@ -11068,13 +11076,13 @@
       <c r="C77" s="39" t="s">
         <v>82</v>
       </c>
-      <c r="D77" s="42">
+      <c r="D77" s="43">
         <v>45943.0</v>
       </c>
-      <c r="E77" s="62">
+      <c r="E77" s="66">
         <v>45945.0</v>
       </c>
-      <c r="F77" s="52"/>
+      <c r="F77" s="57"/>
       <c r="G77" s="20"/>
     </row>
     <row r="78" ht="15.75" customHeight="1">
@@ -11087,13 +11095,13 @@
       <c r="C78" s="39" t="s">
         <v>82</v>
       </c>
-      <c r="D78" s="42">
+      <c r="D78" s="43">
         <v>45954.0</v>
       </c>
-      <c r="E78" s="62">
+      <c r="E78" s="66">
         <v>45956.0</v>
       </c>
-      <c r="F78" s="52"/>
+      <c r="F78" s="57"/>
       <c r="G78" s="20"/>
     </row>
     <row r="79" ht="15.75" customHeight="1">
@@ -11106,13 +11114,13 @@
       <c r="C79" s="39" t="s">
         <v>85</v>
       </c>
-      <c r="D79" s="42">
+      <c r="D79" s="43">
         <v>45955.0</v>
       </c>
-      <c r="E79" s="62">
+      <c r="E79" s="66">
         <v>45957.0</v>
       </c>
-      <c r="F79" s="52"/>
+      <c r="F79" s="57"/>
       <c r="G79" s="20"/>
     </row>
     <row r="80" ht="15.75" customHeight="1">
@@ -11135,24 +11143,24 @@
     </row>
     <row r="82" ht="15.75" customHeight="1">
       <c r="A82" s="30" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
     </row>
     <row r="83" ht="15.75" customHeight="1">
-      <c r="A83" s="49" t="s">
-        <v>159</v>
-      </c>
-      <c r="B83" s="73" t="s">
-        <v>173</v>
-      </c>
-      <c r="C83" s="75" t="s">
-        <v>177</v>
-      </c>
-      <c r="D83" s="73" t="s">
-        <v>161</v>
-      </c>
-      <c r="E83" s="73" t="s">
-        <v>162</v>
+      <c r="A83" s="76" t="s">
+        <v>168</v>
+      </c>
+      <c r="B83" s="54" t="s">
+        <v>182</v>
+      </c>
+      <c r="C83" s="58" t="s">
+        <v>183</v>
+      </c>
+      <c r="D83" s="54" t="s">
+        <v>170</v>
+      </c>
+      <c r="E83" s="54" t="s">
+        <v>171</v>
       </c>
       <c r="F83" s="8" t="s">
         <v>9</v>
@@ -11163,13 +11171,13 @@
       <c r="H83" s="8" t="s">
         <v>73</v>
       </c>
-      <c r="I83" s="36" t="s">
+      <c r="I83" s="67" t="s">
         <v>74</v>
       </c>
-      <c r="J83" s="51"/>
-      <c r="K83" s="63"/>
-      <c r="L83" s="58"/>
-      <c r="M83" s="58"/>
+      <c r="J83" s="56"/>
+      <c r="K83" s="68"/>
+      <c r="L83" s="61"/>
+      <c r="M83" s="61"/>
     </row>
     <row r="84" ht="15.75" customHeight="1">
       <c r="A84" s="11">
@@ -11196,13 +11204,13 @@
       <c r="H84" s="16">
         <v>46316.0</v>
       </c>
-      <c r="I84" s="64">
+      <c r="I84" s="69">
         <v>16000.0</v>
       </c>
-      <c r="J84" s="52"/>
+      <c r="J84" s="57"/>
       <c r="K84" s="20"/>
       <c r="L84" s="20"/>
-      <c r="M84" s="59"/>
+      <c r="M84" s="62"/>
     </row>
     <row r="85" ht="15.75" customHeight="1">
       <c r="A85" s="11">
@@ -11229,13 +11237,13 @@
       <c r="H85" s="16">
         <v>46317.0</v>
       </c>
-      <c r="I85" s="64">
+      <c r="I85" s="69">
         <v>5500.0</v>
       </c>
-      <c r="J85" s="52"/>
+      <c r="J85" s="57"/>
       <c r="K85" s="20"/>
       <c r="L85" s="20"/>
-      <c r="M85" s="59"/>
+      <c r="M85" s="62"/>
     </row>
     <row r="86" ht="15.75" customHeight="1">
       <c r="A86" s="11">
@@ -11262,13 +11270,13 @@
       <c r="H86" s="16">
         <v>46310.0</v>
       </c>
-      <c r="I86" s="64">
+      <c r="I86" s="69">
         <v>75000.0</v>
       </c>
-      <c r="J86" s="52"/>
+      <c r="J86" s="57"/>
       <c r="K86" s="20"/>
       <c r="L86" s="20"/>
-      <c r="M86" s="59"/>
+      <c r="M86" s="62"/>
     </row>
     <row r="87" ht="15.75" customHeight="1">
       <c r="A87" s="11">
@@ -11295,13 +11303,13 @@
       <c r="H87" s="16">
         <v>46319.0</v>
       </c>
-      <c r="I87" s="64">
+      <c r="I87" s="69">
         <v>14000.0</v>
       </c>
-      <c r="J87" s="52"/>
+      <c r="J87" s="57"/>
       <c r="K87" s="20"/>
       <c r="L87" s="20"/>
-      <c r="M87" s="59"/>
+      <c r="M87" s="62"/>
     </row>
     <row r="88" ht="15.75" customHeight="1">
       <c r="A88" s="11">
@@ -11328,13 +11336,13 @@
       <c r="H88" s="16">
         <v>46312.0</v>
       </c>
-      <c r="I88" s="64">
+      <c r="I88" s="69">
         <v>175000.0</v>
       </c>
-      <c r="J88" s="52"/>
+      <c r="J88" s="57"/>
       <c r="K88" s="20"/>
       <c r="L88" s="20"/>
-      <c r="M88" s="59"/>
+      <c r="M88" s="62"/>
     </row>
     <row r="89" ht="15.75" customHeight="1">
       <c r="B89" s="20"/>
@@ -11354,31 +11362,31 @@
     </row>
     <row r="91" ht="15.75" customHeight="1">
       <c r="A91" s="32" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="G91" s="20"/>
     </row>
     <row r="92" ht="15.75" customHeight="1">
-      <c r="A92" s="49" t="s">
-        <v>160</v>
-      </c>
-      <c r="B92" s="73" t="s">
+      <c r="A92" s="76" t="s">
+        <v>169</v>
+      </c>
+      <c r="B92" s="54" t="s">
+        <v>186</v>
+      </c>
+      <c r="C92" s="54" t="s">
         <v>185</v>
       </c>
-      <c r="C92" s="73" t="s">
-        <v>184</v>
-      </c>
-      <c r="D92" s="40" t="s">
-        <v>186</v>
+      <c r="D92" s="35" t="s">
+        <v>141</v>
       </c>
       <c r="E92" s="8" t="s">
         <v>76</v>
       </c>
-      <c r="F92" s="36" t="s">
+      <c r="F92" s="67" t="s">
         <v>77</v>
       </c>
-      <c r="G92" s="51"/>
-      <c r="H92" s="58"/>
+      <c r="G92" s="56"/>
+      <c r="H92" s="61"/>
     </row>
     <row r="93" ht="15.75" customHeight="1">
       <c r="A93" s="11">
@@ -11396,11 +11404,11 @@
       <c r="E93" s="14">
         <v>8000.0</v>
       </c>
-      <c r="F93" s="64">
+      <c r="F93" s="69">
         <v>16000.0</v>
       </c>
-      <c r="G93" s="52"/>
-      <c r="H93" s="59"/>
+      <c r="G93" s="57"/>
+      <c r="H93" s="62"/>
     </row>
     <row r="94" ht="15.75" customHeight="1">
       <c r="A94" s="11">
@@ -11418,11 +11426,11 @@
       <c r="E94" s="14">
         <v>5500.0</v>
       </c>
-      <c r="F94" s="64">
+      <c r="F94" s="69">
         <v>5500.0</v>
       </c>
-      <c r="G94" s="52"/>
-      <c r="H94" s="59"/>
+      <c r="G94" s="57"/>
+      <c r="H94" s="62"/>
     </row>
     <row r="95" ht="15.75" customHeight="1">
       <c r="A95" s="11">
@@ -11440,11 +11448,11 @@
       <c r="E95" s="14">
         <v>15000.0</v>
       </c>
-      <c r="F95" s="64">
+      <c r="F95" s="69">
         <v>75000.0</v>
       </c>
-      <c r="G95" s="52"/>
-      <c r="H95" s="59"/>
+      <c r="G95" s="57"/>
+      <c r="H95" s="62"/>
     </row>
     <row r="96" ht="15.75" customHeight="1">
       <c r="A96" s="11">
@@ -11462,11 +11470,11 @@
       <c r="E96" s="14">
         <v>7000.0</v>
       </c>
-      <c r="F96" s="64">
+      <c r="F96" s="69">
         <v>14000.0</v>
       </c>
-      <c r="G96" s="52"/>
-      <c r="H96" s="59"/>
+      <c r="G96" s="57"/>
+      <c r="H96" s="62"/>
     </row>
     <row r="97" ht="15.75" customHeight="1">
       <c r="A97" s="11">
@@ -11484,11 +11492,11 @@
       <c r="E97" s="14">
         <v>25000.0</v>
       </c>
-      <c r="F97" s="64">
+      <c r="F97" s="69">
         <v>175000.0</v>
       </c>
-      <c r="G97" s="52"/>
-      <c r="H97" s="59"/>
+      <c r="G97" s="57"/>
+      <c r="H97" s="62"/>
     </row>
     <row r="98" ht="15.75" customHeight="1">
       <c r="B98" s="20"/>
@@ -11505,27 +11513,27 @@
       <c r="D99" s="19"/>
     </row>
     <row r="100" ht="15.75" customHeight="1">
-      <c r="A100" s="45" t="s">
-        <v>136</v>
+      <c r="A100" s="46" t="s">
+        <v>142</v>
       </c>
     </row>
     <row r="101" ht="15.75" customHeight="1">
-      <c r="A101" s="49" t="s">
-        <v>161</v>
-      </c>
-      <c r="B101" s="75" t="s">
-        <v>177</v>
-      </c>
-      <c r="C101" s="40" t="s">
+      <c r="A101" s="76" t="s">
+        <v>170</v>
+      </c>
+      <c r="B101" s="58" t="s">
+        <v>183</v>
+      </c>
+      <c r="C101" s="35" t="s">
         <v>79</v>
       </c>
-      <c r="D101" s="40" t="s">
+      <c r="D101" s="35" t="s">
         <v>80</v>
       </c>
-      <c r="E101" s="57" t="s">
+      <c r="E101" s="65" t="s">
         <v>81</v>
       </c>
-      <c r="F101" s="53"/>
+      <c r="F101" s="51"/>
     </row>
     <row r="102" ht="15.75" customHeight="1">
       <c r="A102" s="11">
@@ -11543,7 +11551,7 @@
       <c r="E102" s="38">
         <v>3.219875122E9</v>
       </c>
-      <c r="F102" s="56"/>
+      <c r="F102" s="60"/>
     </row>
     <row r="103" ht="15.75" customHeight="1">
       <c r="A103" s="11">
@@ -11561,7 +11569,7 @@
       <c r="E103" s="38">
         <v>3.049157864E9</v>
       </c>
-      <c r="F103" s="56"/>
+      <c r="F103" s="60"/>
     </row>
     <row r="104" ht="15.75" customHeight="1">
       <c r="A104" s="11">
@@ -11579,7 +11587,7 @@
       <c r="E104" s="38">
         <v>3.153446592E9</v>
       </c>
-      <c r="F104" s="56"/>
+      <c r="F104" s="60"/>
     </row>
     <row r="105" ht="15.75" customHeight="1">
       <c r="A105" s="11">
@@ -11597,7 +11605,7 @@
       <c r="E105" s="38">
         <v>3.145597395E9</v>
       </c>
-      <c r="F105" s="56"/>
+      <c r="F105" s="60"/>
     </row>
     <row r="106" ht="15.75" customHeight="1">
       <c r="A106" s="11">
@@ -11612,10 +11620,10 @@
       <c r="D106" s="39">
         <v>3.108803029E9</v>
       </c>
-      <c r="E106" s="66">
+      <c r="E106" s="71">
         <v>3.108803029E9</v>
       </c>
-      <c r="F106" s="56"/>
+      <c r="F106" s="60"/>
     </row>
     <row r="107" ht="15.75" customHeight="1"/>
     <row r="108" ht="15.75" customHeight="1">
@@ -11626,15 +11634,15 @@
     </row>
     <row r="109" ht="15.75" customHeight="1">
       <c r="A109" s="30" t="s">
-        <v>137</v>
+        <v>143</v>
       </c>
     </row>
     <row r="110" ht="15.75" customHeight="1">
-      <c r="A110" s="49" t="s">
-        <v>162</v>
-      </c>
-      <c r="B110" s="75" t="s">
-        <v>177</v>
+      <c r="A110" s="76" t="s">
+        <v>171</v>
+      </c>
+      <c r="B110" s="58" t="s">
+        <v>183</v>
       </c>
       <c r="C110" s="8" t="s">
         <v>92</v>
@@ -11645,7 +11653,7 @@
       <c r="E110" s="8" t="s">
         <v>94</v>
       </c>
-      <c r="F110" s="63"/>
+      <c r="F110" s="68"/>
     </row>
     <row r="111" ht="15.75" customHeight="1">
       <c r="A111" s="11">
@@ -11751,30 +11759,30 @@
       <c r="E117" s="20"/>
     </row>
     <row r="118" ht="15.75" customHeight="1">
-      <c r="A118" s="41" t="s">
-        <v>138</v>
+      <c r="A118" s="42" t="s">
+        <v>144</v>
       </c>
     </row>
     <row r="119" ht="15.75" customHeight="1">
-      <c r="A119" s="49" t="s">
-        <v>163</v>
-      </c>
-      <c r="B119" s="76" t="s">
-        <v>184</v>
-      </c>
-      <c r="C119" s="40" t="s">
+      <c r="A119" s="76" t="s">
+        <v>172</v>
+      </c>
+      <c r="B119" s="80" t="s">
+        <v>185</v>
+      </c>
+      <c r="C119" s="35" t="s">
         <v>96</v>
       </c>
-      <c r="D119" s="40" t="s">
+      <c r="D119" s="35" t="s">
         <v>97</v>
       </c>
-      <c r="E119" s="40" t="s">
-        <v>187</v>
-      </c>
-      <c r="F119" s="69" t="s">
+      <c r="E119" s="35" t="s">
+        <v>145</v>
+      </c>
+      <c r="F119" s="50" t="s">
         <v>99</v>
       </c>
-      <c r="G119" s="51"/>
+      <c r="G119" s="56"/>
     </row>
     <row r="120" ht="15.75" customHeight="1">
       <c r="A120" s="11">
@@ -11783,7 +11791,7 @@
       <c r="B120" s="16">
         <v>1.0</v>
       </c>
-      <c r="C120" s="42">
+      <c r="C120" s="43">
         <v>45987.0</v>
       </c>
       <c r="D120" s="11" t="s">
@@ -11792,10 +11800,10 @@
       <c r="E120" s="39">
         <v>8.0</v>
       </c>
-      <c r="F120" s="70" t="s">
+      <c r="F120" s="52" t="s">
         <v>27</v>
       </c>
-      <c r="G120" s="52"/>
+      <c r="G120" s="57"/>
     </row>
     <row r="121" ht="15.75" customHeight="1">
       <c r="A121" s="11">
@@ -11804,7 +11812,7 @@
       <c r="B121" s="16">
         <v>2.0</v>
       </c>
-      <c r="C121" s="42">
+      <c r="C121" s="43">
         <v>45988.0</v>
       </c>
       <c r="D121" s="37" t="s">
@@ -11813,10 +11821,10 @@
       <c r="E121" s="39">
         <v>6.0</v>
       </c>
-      <c r="F121" s="70" t="s">
+      <c r="F121" s="52" t="s">
         <v>27</v>
       </c>
-      <c r="G121" s="52"/>
+      <c r="G121" s="57"/>
     </row>
     <row r="122" ht="15.75" customHeight="1">
       <c r="A122" s="11">
@@ -11825,7 +11833,7 @@
       <c r="B122" s="16">
         <v>3.0</v>
       </c>
-      <c r="C122" s="42">
+      <c r="C122" s="43">
         <v>45943.0</v>
       </c>
       <c r="D122" s="37" t="s">
@@ -11834,10 +11842,10 @@
       <c r="E122" s="39">
         <v>3.0</v>
       </c>
-      <c r="F122" s="70" t="s">
+      <c r="F122" s="52" t="s">
         <v>27</v>
       </c>
-      <c r="G122" s="52"/>
+      <c r="G122" s="57"/>
     </row>
     <row r="123" ht="15.75" customHeight="1">
       <c r="A123" s="11">
@@ -11846,7 +11854,7 @@
       <c r="B123" s="16">
         <v>4.0</v>
       </c>
-      <c r="C123" s="42">
+      <c r="C123" s="43">
         <v>45954.0</v>
       </c>
       <c r="D123" s="37" t="s">
@@ -11855,10 +11863,10 @@
       <c r="E123" s="39">
         <v>5.0</v>
       </c>
-      <c r="F123" s="70" t="s">
+      <c r="F123" s="52" t="s">
         <v>27</v>
       </c>
-      <c r="G123" s="52"/>
+      <c r="G123" s="57"/>
     </row>
     <row r="124" ht="15.75" customHeight="1">
       <c r="A124" s="11">
@@ -11867,7 +11875,7 @@
       <c r="B124" s="18">
         <v>5.0</v>
       </c>
-      <c r="C124" s="48">
+      <c r="C124" s="49">
         <v>45920.0</v>
       </c>
       <c r="D124" s="37" t="s">
@@ -11876,10 +11884,10 @@
       <c r="E124" s="39">
         <v>2.0</v>
       </c>
-      <c r="F124" s="70" t="s">
+      <c r="F124" s="52" t="s">
         <v>27</v>
       </c>
-      <c r="G124" s="52"/>
+      <c r="G124" s="57"/>
     </row>
     <row r="125" ht="15.75" customHeight="1"/>
     <row r="126" ht="15.75" customHeight="1">
@@ -11889,27 +11897,27 @@
       <c r="D126" s="19"/>
     </row>
     <row r="127" ht="15.75" customHeight="1">
-      <c r="A127" s="45" t="s">
-        <v>141</v>
+      <c r="A127" s="46" t="s">
+        <v>148</v>
       </c>
     </row>
     <row r="128" ht="15.75" customHeight="1">
-      <c r="A128" s="49" t="s">
-        <v>164</v>
-      </c>
-      <c r="B128" s="73" t="s">
+      <c r="A128" s="76" t="s">
         <v>173</v>
       </c>
-      <c r="C128" s="40" t="s">
+      <c r="B128" s="54" t="s">
+        <v>182</v>
+      </c>
+      <c r="C128" s="35" t="s">
         <v>101</v>
       </c>
-      <c r="D128" s="40" t="s">
+      <c r="D128" s="35" t="s">
         <v>102</v>
       </c>
-      <c r="E128" s="57" t="s">
+      <c r="E128" s="65" t="s">
         <v>103</v>
       </c>
-      <c r="F128" s="51"/>
+      <c r="F128" s="56"/>
     </row>
     <row r="129" ht="15.75" customHeight="1">
       <c r="A129" s="11">
@@ -11921,13 +11929,13 @@
       <c r="C129" s="39" t="s">
         <v>27</v>
       </c>
-      <c r="D129" s="42">
+      <c r="D129" s="43">
         <v>45982.0</v>
       </c>
       <c r="E129" s="38">
         <v>3.219875122E9</v>
       </c>
-      <c r="F129" s="52"/>
+      <c r="F129" s="57"/>
     </row>
     <row r="130" ht="15.75" customHeight="1">
       <c r="A130" s="11">
@@ -11939,13 +11947,13 @@
       <c r="C130" s="39" t="s">
         <v>27</v>
       </c>
-      <c r="D130" s="42">
+      <c r="D130" s="43">
         <v>45983.0</v>
       </c>
       <c r="E130" s="38">
         <v>3.049157864E9</v>
       </c>
-      <c r="F130" s="52"/>
+      <c r="F130" s="57"/>
     </row>
     <row r="131" ht="15.75" customHeight="1">
       <c r="A131" s="11">
@@ -11957,13 +11965,13 @@
       <c r="C131" s="39" t="s">
         <v>27</v>
       </c>
-      <c r="D131" s="42">
+      <c r="D131" s="43">
         <v>45976.0</v>
       </c>
       <c r="E131" s="38">
         <v>3.153446592E9</v>
       </c>
-      <c r="F131" s="52"/>
+      <c r="F131" s="57"/>
     </row>
     <row r="132" ht="15.75" customHeight="1">
       <c r="A132" s="11">
@@ -11975,13 +11983,13 @@
       <c r="C132" s="39" t="s">
         <v>27</v>
       </c>
-      <c r="D132" s="42">
+      <c r="D132" s="43">
         <v>45987.0</v>
       </c>
       <c r="E132" s="38">
         <v>3.145597395E9</v>
       </c>
-      <c r="F132" s="52"/>
+      <c r="F132" s="57"/>
     </row>
     <row r="133" ht="15.75" customHeight="1">
       <c r="A133" s="11">
@@ -11993,13 +12001,13 @@
       <c r="C133" s="39" t="s">
         <v>27</v>
       </c>
-      <c r="D133" s="42">
+      <c r="D133" s="43">
         <v>45988.0</v>
       </c>
-      <c r="E133" s="66">
+      <c r="E133" s="71">
         <v>3.108803029E9</v>
       </c>
-      <c r="F133" s="52"/>
+      <c r="F133" s="57"/>
     </row>
     <row r="134" ht="15.75" customHeight="1"/>
     <row r="135" ht="15.75" customHeight="1">
@@ -12010,24 +12018,25 @@
     </row>
     <row r="136" ht="15.75" customHeight="1">
       <c r="A136" s="30" t="s">
-        <v>143</v>
-      </c>
-      <c r="E136" s="6"/>
+        <v>150</v>
+      </c>
     </row>
     <row r="137" ht="15.75" customHeight="1">
-      <c r="A137" s="49" t="s">
-        <v>165</v>
-      </c>
-      <c r="B137" s="73" t="s">
-        <v>173</v>
+      <c r="A137" s="76" t="s">
+        <v>174</v>
+      </c>
+      <c r="B137" s="54" t="s">
+        <v>182</v>
       </c>
       <c r="C137" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="D137" s="50" t="s">
+      <c r="D137" s="55" t="s">
         <v>101</v>
       </c>
-      <c r="E137" s="51"/>
+      <c r="E137" s="59" t="s">
+        <v>151</v>
+      </c>
     </row>
     <row r="138" ht="15.75" customHeight="1">
       <c r="A138" s="11">
@@ -12042,7 +12051,9 @@
       <c r="D138" s="38" t="s">
         <v>106</v>
       </c>
-      <c r="E138" s="52"/>
+      <c r="E138" s="14" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="139" ht="15.75" customHeight="1">
       <c r="A139" s="11">
@@ -12057,7 +12068,9 @@
       <c r="D139" s="38" t="s">
         <v>108</v>
       </c>
-      <c r="E139" s="52"/>
+      <c r="E139" s="14" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="140" ht="15.75" customHeight="1">
       <c r="A140" s="11">
@@ -12072,7 +12085,9 @@
       <c r="D140" s="38" t="s">
         <v>110</v>
       </c>
-      <c r="E140" s="52"/>
+      <c r="E140" s="14" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="141" ht="15.75" customHeight="1">
       <c r="A141" s="11">
@@ -12087,7 +12102,9 @@
       <c r="D141" s="38" t="s">
         <v>112</v>
       </c>
-      <c r="E141" s="52"/>
+      <c r="E141" s="14" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="142" ht="15.75" customHeight="1">
       <c r="A142" s="11">
@@ -12102,7 +12119,9 @@
       <c r="D142" s="38" t="s">
         <v>110</v>
       </c>
-      <c r="E142" s="52"/>
+      <c r="E142" s="14" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="143" ht="15.75" customHeight="1"/>
     <row r="144" ht="15.75" customHeight="1"/>
@@ -12882,19 +12901,19 @@
     <mergeCell ref="B8:H8"/>
     <mergeCell ref="A12:B12"/>
     <mergeCell ref="A19:E19"/>
-    <mergeCell ref="A82:I82"/>
     <mergeCell ref="A91:F91"/>
     <mergeCell ref="A100:E100"/>
     <mergeCell ref="A109:E109"/>
     <mergeCell ref="A118:F118"/>
     <mergeCell ref="A127:E127"/>
-    <mergeCell ref="A136:D136"/>
-    <mergeCell ref="A28:F28"/>
+    <mergeCell ref="A136:E136"/>
+    <mergeCell ref="A28:G28"/>
     <mergeCell ref="A37:D37"/>
     <mergeCell ref="A46:B46"/>
     <mergeCell ref="A55:J55"/>
     <mergeCell ref="A64:F64"/>
     <mergeCell ref="A73:E73"/>
+    <mergeCell ref="A82:I82"/>
   </mergeCells>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -12919,30 +12938,30 @@
   </cols>
   <sheetData>
     <row r="1" ht="15.75" customHeight="1">
-      <c r="A1" s="77" t="s">
+      <c r="A1" s="81" t="s">
+        <v>187</v>
+      </c>
+      <c r="B1" s="82"/>
+      <c r="C1" s="82"/>
+      <c r="D1" s="82"/>
+      <c r="E1" s="82"/>
+      <c r="F1" s="83"/>
+    </row>
+    <row r="2" ht="15.75" customHeight="1">
+      <c r="A2" s="84" t="s">
         <v>188</v>
       </c>
-      <c r="B1" s="78"/>
-      <c r="C1" s="78"/>
-      <c r="D1" s="78"/>
-      <c r="E1" s="78"/>
-      <c r="F1" s="79"/>
-    </row>
-    <row r="2" ht="15.75" customHeight="1">
-      <c r="A2" s="80" t="s">
+      <c r="B2" s="84" t="s">
         <v>189</v>
       </c>
-      <c r="B2" s="80" t="s">
+      <c r="C2" s="84" t="s">
         <v>190</v>
       </c>
-      <c r="C2" s="80" t="s">
+      <c r="D2" s="84" t="s">
         <v>191</v>
       </c>
-      <c r="D2" s="80" t="s">
+      <c r="E2" s="34" t="s">
         <v>192</v>
-      </c>
-      <c r="E2" s="34" t="s">
-        <v>193</v>
       </c>
       <c r="F2" s="34" t="s">
         <v>8</v>
@@ -12950,42 +12969,42 @@
     </row>
     <row r="3" ht="15.75" customHeight="1">
       <c r="A3" s="11" t="s">
+        <v>193</v>
+      </c>
+      <c r="B3" s="37" t="s">
         <v>194</v>
       </c>
-      <c r="B3" s="37" t="s">
+      <c r="C3" s="37" t="s">
         <v>195</v>
       </c>
-      <c r="C3" s="37" t="s">
+      <c r="D3" s="37" t="s">
         <v>196</v>
       </c>
-      <c r="D3" s="37" t="s">
+      <c r="E3" s="37" t="s">
         <v>197</v>
       </c>
-      <c r="E3" s="37" t="s">
+      <c r="F3" s="37" t="s">
         <v>198</v>
-      </c>
-      <c r="F3" s="37" t="s">
-        <v>199</v>
       </c>
     </row>
     <row r="4" ht="15.75" customHeight="1">
       <c r="A4" s="11" t="s">
+        <v>199</v>
+      </c>
+      <c r="B4" s="37" t="s">
+        <v>194</v>
+      </c>
+      <c r="C4" s="37" t="s">
+        <v>195</v>
+      </c>
+      <c r="D4" s="37" t="s">
+        <v>196</v>
+      </c>
+      <c r="E4" s="37" t="s">
         <v>200</v>
       </c>
-      <c r="B4" s="37" t="s">
-        <v>195</v>
-      </c>
-      <c r="C4" s="37" t="s">
-        <v>196</v>
-      </c>
-      <c r="D4" s="37" t="s">
-        <v>197</v>
-      </c>
-      <c r="E4" s="37" t="s">
+      <c r="F4" s="37" t="s">
         <v>201</v>
-      </c>
-      <c r="F4" s="37" t="s">
-        <v>202</v>
       </c>
     </row>
     <row r="5" ht="15.75" customHeight="1">
@@ -12993,19 +13012,19 @@
         <v>2</v>
       </c>
       <c r="B5" s="37" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C5" s="37">
         <v>100.0</v>
       </c>
       <c r="D5" s="37" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="E5" s="37" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="F5" s="37" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="6" ht="15.75" customHeight="1">
@@ -13013,19 +13032,19 @@
         <v>4</v>
       </c>
       <c r="B6" s="37" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C6" s="37">
         <v>150.0</v>
       </c>
       <c r="D6" s="37" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="E6" s="37" t="s">
+        <v>204</v>
+      </c>
+      <c r="F6" s="37" t="s">
         <v>205</v>
-      </c>
-      <c r="F6" s="37" t="s">
-        <v>206</v>
       </c>
     </row>
     <row r="7" ht="15.75" customHeight="1">
@@ -13033,47 +13052,47 @@
         <v>5</v>
       </c>
       <c r="B7" s="37" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C7" s="37">
         <v>10.0</v>
       </c>
       <c r="D7" s="37" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="E7" s="37" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="F7" s="37" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="8" ht="15.75" customHeight="1"/>
     <row r="9" ht="15.75" customHeight="1">
-      <c r="A9" s="77" t="s">
-        <v>208</v>
-      </c>
-      <c r="B9" s="78"/>
-      <c r="C9" s="78"/>
-      <c r="D9" s="78"/>
-      <c r="E9" s="78"/>
-      <c r="F9" s="79"/>
+      <c r="A9" s="81" t="s">
+        <v>207</v>
+      </c>
+      <c r="B9" s="82"/>
+      <c r="C9" s="82"/>
+      <c r="D9" s="82"/>
+      <c r="E9" s="82"/>
+      <c r="F9" s="83"/>
     </row>
     <row r="10" ht="15.75" customHeight="1">
       <c r="A10" s="34" t="s">
+        <v>188</v>
+      </c>
+      <c r="B10" s="34" t="s">
         <v>189</v>
       </c>
-      <c r="B10" s="34" t="s">
+      <c r="C10" s="84" t="s">
         <v>190</v>
       </c>
-      <c r="C10" s="80" t="s">
+      <c r="D10" s="84" t="s">
         <v>191</v>
       </c>
-      <c r="D10" s="80" t="s">
+      <c r="E10" s="34" t="s">
         <v>192</v>
-      </c>
-      <c r="E10" s="34" t="s">
-        <v>193</v>
       </c>
       <c r="F10" s="34" t="s">
         <v>8</v>
@@ -13081,22 +13100,22 @@
     </row>
     <row r="11" ht="15.75" customHeight="1">
       <c r="A11" s="37" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B11" s="37" t="s">
+        <v>194</v>
+      </c>
+      <c r="C11" s="37" t="s">
         <v>195</v>
       </c>
-      <c r="C11" s="37" t="s">
-        <v>196</v>
-      </c>
       <c r="D11" s="37" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="E11" s="37" t="s">
+        <v>197</v>
+      </c>
+      <c r="F11" s="37" t="s">
         <v>198</v>
-      </c>
-      <c r="F11" s="37" t="s">
-        <v>199</v>
       </c>
     </row>
     <row r="12" ht="15.75" customHeight="1">
@@ -13104,19 +13123,19 @@
         <v>2</v>
       </c>
       <c r="B12" s="37" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C12" s="37">
         <v>20.0</v>
       </c>
       <c r="D12" s="37" t="s">
+        <v>208</v>
+      </c>
+      <c r="E12" s="37" t="s">
+        <v>195</v>
+      </c>
+      <c r="F12" s="37" t="s">
         <v>209</v>
-      </c>
-      <c r="E12" s="37" t="s">
-        <v>196</v>
-      </c>
-      <c r="F12" s="37" t="s">
-        <v>210</v>
       </c>
     </row>
     <row r="13" ht="15.75" customHeight="1">
@@ -13125,238 +13144,238 @@
       <c r="D13" s="21"/>
     </row>
     <row r="14" ht="15.75" customHeight="1">
-      <c r="A14" s="81" t="s">
-        <v>211</v>
-      </c>
-      <c r="B14" s="78"/>
-      <c r="C14" s="78"/>
-      <c r="D14" s="78"/>
-      <c r="E14" s="78"/>
-      <c r="F14" s="79"/>
-      <c r="G14" s="59"/>
-      <c r="H14" s="59"/>
-      <c r="I14" s="59"/>
+      <c r="A14" s="85" t="s">
+        <v>210</v>
+      </c>
+      <c r="B14" s="82"/>
+      <c r="C14" s="82"/>
+      <c r="D14" s="82"/>
+      <c r="E14" s="82"/>
+      <c r="F14" s="83"/>
+      <c r="G14" s="62"/>
+      <c r="H14" s="62"/>
+      <c r="I14" s="62"/>
     </row>
     <row r="15" ht="15.75" customHeight="1">
       <c r="A15" s="34" t="s">
+        <v>188</v>
+      </c>
+      <c r="B15" s="8" t="s">
         <v>189</v>
       </c>
-      <c r="B15" s="8" t="s">
+      <c r="C15" s="84" t="s">
         <v>190</v>
       </c>
-      <c r="C15" s="80" t="s">
+      <c r="D15" s="84" t="s">
         <v>191</v>
       </c>
-      <c r="D15" s="80" t="s">
+      <c r="E15" s="34" t="s">
         <v>192</v>
-      </c>
-      <c r="E15" s="34" t="s">
-        <v>193</v>
       </c>
       <c r="F15" s="34" t="s">
         <v>8</v>
       </c>
-      <c r="G15" s="59"/>
-      <c r="H15" s="59"/>
-      <c r="I15" s="59"/>
+      <c r="G15" s="62"/>
+      <c r="H15" s="62"/>
+      <c r="I15" s="62"/>
     </row>
     <row r="16" ht="15.75" customHeight="1">
       <c r="A16" s="11" t="s">
+        <v>211</v>
+      </c>
+      <c r="B16" s="11" t="s">
+        <v>194</v>
+      </c>
+      <c r="C16" s="37" t="s">
+        <v>195</v>
+      </c>
+      <c r="D16" s="11" t="s">
+        <v>208</v>
+      </c>
+      <c r="E16" s="37" t="s">
         <v>212</v>
       </c>
-      <c r="B16" s="11" t="s">
-        <v>195</v>
-      </c>
-      <c r="C16" s="37" t="s">
-        <v>196</v>
-      </c>
-      <c r="D16" s="11" t="s">
-        <v>209</v>
-      </c>
-      <c r="E16" s="37" t="s">
-        <v>213</v>
-      </c>
       <c r="F16" s="37" t="s">
-        <v>199</v>
-      </c>
-      <c r="G16" s="59"/>
-      <c r="H16" s="59"/>
-      <c r="I16" s="59"/>
+        <v>198</v>
+      </c>
+      <c r="G16" s="62"/>
+      <c r="H16" s="62"/>
+      <c r="I16" s="62"/>
     </row>
     <row r="17" ht="15.75" customHeight="1">
       <c r="A17" s="11" t="s">
+        <v>193</v>
+      </c>
+      <c r="B17" s="11" t="s">
         <v>194</v>
       </c>
-      <c r="B17" s="11" t="s">
+      <c r="C17" s="11" t="s">
         <v>195</v>
       </c>
-      <c r="C17" s="11" t="s">
+      <c r="D17" s="11" t="s">
         <v>196</v>
       </c>
-      <c r="D17" s="11" t="s">
-        <v>197</v>
-      </c>
       <c r="E17" s="37" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="F17" s="11" t="s">
-        <v>214</v>
-      </c>
-      <c r="G17" s="59"/>
-      <c r="H17" s="59"/>
-      <c r="I17" s="59"/>
+        <v>213</v>
+      </c>
+      <c r="G17" s="62"/>
+      <c r="H17" s="62"/>
+      <c r="I17" s="62"/>
     </row>
     <row r="18" ht="15.75" customHeight="1">
       <c r="A18" s="11" t="s">
         <v>7</v>
       </c>
       <c r="B18" s="11" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C18" s="11"/>
       <c r="D18" s="11" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="E18" s="37" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="F18" s="11" t="s">
-        <v>216</v>
-      </c>
-      <c r="G18" s="59"/>
-      <c r="H18" s="59"/>
-      <c r="I18" s="59"/>
+        <v>215</v>
+      </c>
+      <c r="G18" s="62"/>
+      <c r="H18" s="62"/>
+      <c r="I18" s="62"/>
     </row>
     <row r="19" ht="15.75" customHeight="1">
       <c r="A19" s="11" t="s">
         <v>2</v>
       </c>
       <c r="B19" s="11" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C19" s="11">
         <v>50.0</v>
       </c>
       <c r="D19" s="11" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="E19" s="37" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="F19" s="11" t="s">
-        <v>217</v>
-      </c>
-      <c r="G19" s="59"/>
-      <c r="H19" s="59"/>
-      <c r="I19" s="59"/>
+        <v>216</v>
+      </c>
+      <c r="G19" s="62"/>
+      <c r="H19" s="62"/>
+      <c r="I19" s="62"/>
     </row>
     <row r="20" ht="15.75" customHeight="1">
       <c r="A20" s="11" t="s">
         <v>8</v>
       </c>
       <c r="B20" s="11" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C20" s="11">
         <v>150.0</v>
       </c>
       <c r="D20" s="11" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="E20" s="37" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="F20" s="11" t="s">
-        <v>218</v>
-      </c>
-      <c r="G20" s="59"/>
-      <c r="H20" s="59"/>
-      <c r="I20" s="59"/>
+        <v>217</v>
+      </c>
+      <c r="G20" s="62"/>
+      <c r="H20" s="62"/>
+      <c r="I20" s="62"/>
     </row>
     <row r="21" ht="15.75" customHeight="1">
       <c r="A21" s="11" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B21" s="11" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C21" s="11">
         <v>20.0</v>
       </c>
       <c r="D21" s="11" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="E21" s="37" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="F21" s="11" t="s">
-        <v>220</v>
-      </c>
-      <c r="G21" s="59"/>
-      <c r="H21" s="59"/>
-      <c r="I21" s="59"/>
+        <v>219</v>
+      </c>
+      <c r="G21" s="62"/>
+      <c r="H21" s="62"/>
+      <c r="I21" s="62"/>
     </row>
     <row r="22" ht="15.75" customHeight="1">
       <c r="A22" s="11" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B22" s="11" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C22" s="11">
         <v>10.0</v>
       </c>
       <c r="D22" s="37" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="E22" s="37" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="F22" s="11" t="s">
-        <v>222</v>
-      </c>
-      <c r="G22" s="59"/>
-      <c r="H22" s="59"/>
-      <c r="I22" s="59"/>
+        <v>221</v>
+      </c>
+      <c r="G22" s="62"/>
+      <c r="H22" s="62"/>
+      <c r="I22" s="62"/>
     </row>
     <row r="23" ht="15.75" customHeight="1">
-      <c r="A23" s="59"/>
+      <c r="A23" s="62"/>
       <c r="B23" s="4"/>
       <c r="C23" s="4"/>
       <c r="D23" s="4"/>
-      <c r="F23" s="59"/>
-      <c r="G23" s="59"/>
-      <c r="H23" s="59"/>
-      <c r="I23" s="59"/>
+      <c r="F23" s="62"/>
+      <c r="G23" s="62"/>
+      <c r="H23" s="62"/>
+      <c r="I23" s="62"/>
     </row>
     <row r="24" ht="15.75" customHeight="1">
-      <c r="A24" s="81" t="s">
-        <v>223</v>
-      </c>
-      <c r="B24" s="78"/>
-      <c r="C24" s="78"/>
-      <c r="D24" s="78"/>
-      <c r="E24" s="78"/>
-      <c r="F24" s="79"/>
-      <c r="G24" s="59"/>
-      <c r="H24" s="59"/>
-      <c r="I24" s="59"/>
+      <c r="A24" s="85" t="s">
+        <v>222</v>
+      </c>
+      <c r="B24" s="82"/>
+      <c r="C24" s="82"/>
+      <c r="D24" s="82"/>
+      <c r="E24" s="82"/>
+      <c r="F24" s="83"/>
+      <c r="G24" s="62"/>
+      <c r="H24" s="62"/>
+      <c r="I24" s="62"/>
     </row>
     <row r="25" ht="15.75" customHeight="1">
       <c r="A25" s="34" t="s">
+        <v>188</v>
+      </c>
+      <c r="B25" s="8" t="s">
         <v>189</v>
       </c>
-      <c r="B25" s="8" t="s">
+      <c r="C25" s="84" t="s">
         <v>190</v>
       </c>
-      <c r="C25" s="80" t="s">
+      <c r="D25" s="84" t="s">
         <v>191</v>
       </c>
-      <c r="D25" s="80" t="s">
+      <c r="E25" s="34" t="s">
         <v>192</v>
-      </c>
-      <c r="E25" s="34" t="s">
-        <v>193</v>
       </c>
       <c r="F25" s="34" t="s">
         <v>8</v>
@@ -13364,62 +13383,62 @@
     </row>
     <row r="26" ht="15.75" customHeight="1">
       <c r="A26" s="11" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B26" s="11" t="s">
+        <v>194</v>
+      </c>
+      <c r="C26" s="37" t="s">
         <v>195</v>
       </c>
-      <c r="C26" s="37" t="s">
-        <v>196</v>
-      </c>
       <c r="D26" s="11" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="E26" s="37" t="s">
+        <v>197</v>
+      </c>
+      <c r="F26" s="37" t="s">
         <v>198</v>
-      </c>
-      <c r="F26" s="37" t="s">
-        <v>199</v>
       </c>
     </row>
     <row r="27" ht="15.75" customHeight="1">
       <c r="A27" s="11" t="s">
+        <v>224</v>
+      </c>
+      <c r="B27" s="11" t="s">
+        <v>194</v>
+      </c>
+      <c r="C27" s="11" t="s">
+        <v>195</v>
+      </c>
+      <c r="D27" s="11" t="s">
+        <v>196</v>
+      </c>
+      <c r="E27" s="37" t="s">
+        <v>200</v>
+      </c>
+      <c r="F27" s="11" t="s">
         <v>225</v>
-      </c>
-      <c r="B27" s="11" t="s">
-        <v>195</v>
-      </c>
-      <c r="C27" s="11" t="s">
-        <v>196</v>
-      </c>
-      <c r="D27" s="11" t="s">
-        <v>197</v>
-      </c>
-      <c r="E27" s="37" t="s">
-        <v>201</v>
-      </c>
-      <c r="F27" s="11" t="s">
-        <v>226</v>
       </c>
     </row>
     <row r="28" ht="15.75" customHeight="1">
       <c r="A28" s="11" t="s">
+        <v>226</v>
+      </c>
+      <c r="B28" s="11" t="s">
+        <v>194</v>
+      </c>
+      <c r="C28" s="11" t="s">
+        <v>195</v>
+      </c>
+      <c r="D28" s="11" t="s">
+        <v>196</v>
+      </c>
+      <c r="E28" s="37" t="s">
+        <v>200</v>
+      </c>
+      <c r="F28" s="11" t="s">
         <v>227</v>
-      </c>
-      <c r="B28" s="11" t="s">
-        <v>195</v>
-      </c>
-      <c r="C28" s="11" t="s">
-        <v>196</v>
-      </c>
-      <c r="D28" s="11" t="s">
-        <v>197</v>
-      </c>
-      <c r="E28" s="37" t="s">
-        <v>201</v>
-      </c>
-      <c r="F28" s="11" t="s">
-        <v>228</v>
       </c>
     </row>
     <row r="29" ht="15.75" customHeight="1">
@@ -13427,17 +13446,17 @@
         <v>15</v>
       </c>
       <c r="B29" s="11" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C29" s="11"/>
       <c r="D29" s="11" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="E29" s="37" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="F29" s="11" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="30" ht="15.75" customHeight="1">
@@ -13445,19 +13464,19 @@
         <v>2</v>
       </c>
       <c r="B30" s="11" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C30" s="11">
         <v>50.0</v>
       </c>
       <c r="D30" s="11" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="E30" s="37" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="F30" s="11" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="31" ht="15.75" customHeight="1">
@@ -13465,19 +13484,19 @@
         <v>8</v>
       </c>
       <c r="B31" s="11" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C31" s="11">
         <v>150.0</v>
       </c>
       <c r="D31" s="11" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="E31" s="37" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="F31" s="11" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="32" ht="15.75" customHeight="1">
@@ -13485,19 +13504,19 @@
         <v>16</v>
       </c>
       <c r="B32" s="11" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C32" s="11">
         <v>150.0</v>
       </c>
       <c r="D32" s="11" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="E32" s="37" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="F32" s="11" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="33" ht="15.75" customHeight="1">
@@ -13505,19 +13524,19 @@
         <v>17</v>
       </c>
       <c r="B33" s="37" t="s">
+        <v>194</v>
+      </c>
+      <c r="C33" s="11" t="s">
         <v>195</v>
       </c>
-      <c r="C33" s="11" t="s">
+      <c r="D33" s="11" t="s">
         <v>196</v>
       </c>
-      <c r="D33" s="11" t="s">
-        <v>197</v>
-      </c>
       <c r="E33" s="37" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="F33" s="11" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="34" ht="15.75" customHeight="1">
@@ -13525,47 +13544,47 @@
         <v>18</v>
       </c>
       <c r="B34" s="37" t="s">
+        <v>233</v>
+      </c>
+      <c r="C34" s="11" t="s">
+        <v>195</v>
+      </c>
+      <c r="D34" s="11" t="s">
+        <v>196</v>
+      </c>
+      <c r="E34" s="37" t="s">
+        <v>195</v>
+      </c>
+      <c r="F34" s="11" t="s">
         <v>234</v>
-      </c>
-      <c r="C34" s="11" t="s">
-        <v>196</v>
-      </c>
-      <c r="D34" s="11" t="s">
-        <v>197</v>
-      </c>
-      <c r="E34" s="37" t="s">
-        <v>196</v>
-      </c>
-      <c r="F34" s="11" t="s">
-        <v>235</v>
       </c>
     </row>
     <row r="35" ht="15.75" customHeight="1"/>
     <row r="36" ht="15.75" customHeight="1">
-      <c r="A36" s="77" t="s">
-        <v>236</v>
-      </c>
-      <c r="B36" s="78"/>
-      <c r="C36" s="78"/>
-      <c r="D36" s="78"/>
-      <c r="E36" s="78"/>
-      <c r="F36" s="79"/>
+      <c r="A36" s="81" t="s">
+        <v>235</v>
+      </c>
+      <c r="B36" s="82"/>
+      <c r="C36" s="82"/>
+      <c r="D36" s="82"/>
+      <c r="E36" s="82"/>
+      <c r="F36" s="83"/>
     </row>
     <row r="37" ht="15.75" customHeight="1">
       <c r="A37" s="34" t="s">
+        <v>188</v>
+      </c>
+      <c r="B37" s="34" t="s">
         <v>189</v>
       </c>
-      <c r="B37" s="34" t="s">
+      <c r="C37" s="84" t="s">
         <v>190</v>
       </c>
-      <c r="C37" s="80" t="s">
+      <c r="D37" s="84" t="s">
         <v>191</v>
       </c>
-      <c r="D37" s="80" t="s">
+      <c r="E37" s="34" t="s">
         <v>192</v>
-      </c>
-      <c r="E37" s="34" t="s">
-        <v>193</v>
       </c>
       <c r="F37" s="34" t="s">
         <v>8</v>
@@ -13573,22 +13592,22 @@
     </row>
     <row r="38" ht="15.75" customHeight="1">
       <c r="A38" s="37" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B38" s="37" t="s">
+        <v>194</v>
+      </c>
+      <c r="C38" s="37" t="s">
         <v>195</v>
       </c>
-      <c r="C38" s="37" t="s">
-        <v>196</v>
-      </c>
       <c r="D38" s="37" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="E38" s="37" t="s">
+        <v>197</v>
+      </c>
+      <c r="F38" s="37" t="s">
         <v>198</v>
-      </c>
-      <c r="F38" s="37" t="s">
-        <v>199</v>
       </c>
     </row>
     <row r="39" ht="15.75" customHeight="1">
@@ -13596,47 +13615,47 @@
         <v>2</v>
       </c>
       <c r="B39" s="37" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C39" s="37">
         <v>50.0</v>
       </c>
       <c r="D39" s="37" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="E39" s="37" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="F39" s="37" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="40" ht="15.75" customHeight="1"/>
     <row r="41" ht="15.75" customHeight="1">
-      <c r="A41" s="81" t="s">
-        <v>239</v>
-      </c>
-      <c r="B41" s="78"/>
-      <c r="C41" s="78"/>
-      <c r="D41" s="78"/>
-      <c r="E41" s="78"/>
-      <c r="F41" s="79"/>
+      <c r="A41" s="85" t="s">
+        <v>238</v>
+      </c>
+      <c r="B41" s="82"/>
+      <c r="C41" s="82"/>
+      <c r="D41" s="82"/>
+      <c r="E41" s="82"/>
+      <c r="F41" s="83"/>
     </row>
     <row r="42" ht="15.75" customHeight="1">
       <c r="A42" s="34" t="s">
+        <v>188</v>
+      </c>
+      <c r="B42" s="8" t="s">
         <v>189</v>
       </c>
-      <c r="B42" s="8" t="s">
+      <c r="C42" s="84" t="s">
         <v>190</v>
       </c>
-      <c r="C42" s="80" t="s">
+      <c r="D42" s="84" t="s">
         <v>191</v>
       </c>
-      <c r="D42" s="80" t="s">
+      <c r="E42" s="34" t="s">
         <v>192</v>
-      </c>
-      <c r="E42" s="34" t="s">
-        <v>193</v>
       </c>
       <c r="F42" s="34" t="s">
         <v>8</v>
@@ -13644,62 +13663,62 @@
     </row>
     <row r="43" ht="15.75" customHeight="1">
       <c r="A43" s="11" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B43" s="11" t="s">
+        <v>194</v>
+      </c>
+      <c r="C43" s="37" t="s">
         <v>195</v>
       </c>
-      <c r="C43" s="37" t="s">
-        <v>196</v>
-      </c>
       <c r="D43" s="11" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="E43" s="37" t="s">
+        <v>197</v>
+      </c>
+      <c r="F43" s="37" t="s">
         <v>198</v>
-      </c>
-      <c r="F43" s="37" t="s">
-        <v>199</v>
       </c>
     </row>
     <row r="44" ht="15.75" customHeight="1">
       <c r="A44" s="11" t="s">
+        <v>240</v>
+      </c>
+      <c r="B44" s="11" t="s">
+        <v>194</v>
+      </c>
+      <c r="C44" s="37" t="s">
+        <v>195</v>
+      </c>
+      <c r="D44" s="11" t="s">
+        <v>208</v>
+      </c>
+      <c r="E44" s="37" t="s">
+        <v>200</v>
+      </c>
+      <c r="F44" s="37" t="s">
         <v>241</v>
-      </c>
-      <c r="B44" s="11" t="s">
-        <v>195</v>
-      </c>
-      <c r="C44" s="37" t="s">
-        <v>196</v>
-      </c>
-      <c r="D44" s="11" t="s">
-        <v>209</v>
-      </c>
-      <c r="E44" s="37" t="s">
-        <v>201</v>
-      </c>
-      <c r="F44" s="37" t="s">
-        <v>242</v>
       </c>
     </row>
     <row r="45" ht="15.75" customHeight="1">
       <c r="A45" s="11" t="s">
+        <v>242</v>
+      </c>
+      <c r="B45" s="11" t="s">
+        <v>194</v>
+      </c>
+      <c r="C45" s="37" t="s">
+        <v>195</v>
+      </c>
+      <c r="D45" s="11" t="s">
+        <v>208</v>
+      </c>
+      <c r="E45" s="37" t="s">
+        <v>200</v>
+      </c>
+      <c r="F45" s="37" t="s">
         <v>243</v>
-      </c>
-      <c r="B45" s="11" t="s">
-        <v>195</v>
-      </c>
-      <c r="C45" s="37" t="s">
-        <v>196</v>
-      </c>
-      <c r="D45" s="11" t="s">
-        <v>209</v>
-      </c>
-      <c r="E45" s="37" t="s">
-        <v>201</v>
-      </c>
-      <c r="F45" s="37" t="s">
-        <v>244</v>
       </c>
     </row>
     <row r="46" ht="15.75" customHeight="1">
@@ -13707,19 +13726,19 @@
         <v>62</v>
       </c>
       <c r="B46" s="11" t="s">
+        <v>244</v>
+      </c>
+      <c r="C46" s="37" t="s">
+        <v>195</v>
+      </c>
+      <c r="D46" s="11" t="s">
+        <v>208</v>
+      </c>
+      <c r="E46" s="37" t="s">
+        <v>195</v>
+      </c>
+      <c r="F46" s="37" t="s">
         <v>245</v>
-      </c>
-      <c r="C46" s="37" t="s">
-        <v>196</v>
-      </c>
-      <c r="D46" s="11" t="s">
-        <v>209</v>
-      </c>
-      <c r="E46" s="37" t="s">
-        <v>196</v>
-      </c>
-      <c r="F46" s="37" t="s">
-        <v>246</v>
       </c>
     </row>
     <row r="47" ht="15.75" customHeight="1">
@@ -13727,19 +13746,19 @@
         <v>63</v>
       </c>
       <c r="B47" s="11" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C47" s="37">
         <v>500.0</v>
       </c>
       <c r="D47" s="11" t="s">
+        <v>246</v>
+      </c>
+      <c r="E47" s="37" t="s">
+        <v>195</v>
+      </c>
+      <c r="F47" s="37" t="s">
         <v>247</v>
-      </c>
-      <c r="E47" s="37" t="s">
-        <v>196</v>
-      </c>
-      <c r="F47" s="37" t="s">
-        <v>248</v>
       </c>
     </row>
     <row r="48" ht="15.75" customHeight="1">
@@ -13747,47 +13766,47 @@
         <v>64</v>
       </c>
       <c r="B48" s="11" t="s">
+        <v>194</v>
+      </c>
+      <c r="C48" s="37" t="s">
         <v>195</v>
       </c>
-      <c r="C48" s="37" t="s">
-        <v>196</v>
-      </c>
       <c r="D48" s="11" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="E48" s="37" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="F48" s="37" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="49" ht="15.75" customHeight="1"/>
     <row r="50" ht="15.75" customHeight="1">
-      <c r="A50" s="81" t="s">
-        <v>250</v>
-      </c>
-      <c r="B50" s="78"/>
-      <c r="C50" s="78"/>
-      <c r="D50" s="78"/>
-      <c r="E50" s="78"/>
-      <c r="F50" s="79"/>
+      <c r="A50" s="85" t="s">
+        <v>249</v>
+      </c>
+      <c r="B50" s="82"/>
+      <c r="C50" s="82"/>
+      <c r="D50" s="82"/>
+      <c r="E50" s="82"/>
+      <c r="F50" s="83"/>
     </row>
     <row r="51" ht="15.75" customHeight="1">
       <c r="A51" s="34" t="s">
+        <v>188</v>
+      </c>
+      <c r="B51" s="8" t="s">
         <v>189</v>
       </c>
-      <c r="B51" s="8" t="s">
+      <c r="C51" s="34" t="s">
         <v>190</v>
       </c>
-      <c r="C51" s="34" t="s">
+      <c r="D51" s="34" t="s">
         <v>191</v>
       </c>
-      <c r="D51" s="34" t="s">
+      <c r="E51" s="34" t="s">
         <v>192</v>
-      </c>
-      <c r="E51" s="34" t="s">
-        <v>193</v>
       </c>
       <c r="F51" s="34" t="s">
         <v>8</v>
@@ -13795,42 +13814,42 @@
     </row>
     <row r="52" ht="15.75" customHeight="1">
       <c r="A52" s="11" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B52" s="11" t="s">
+        <v>194</v>
+      </c>
+      <c r="C52" s="37" t="s">
         <v>195</v>
       </c>
-      <c r="C52" s="37" t="s">
+      <c r="D52" s="11" t="s">
         <v>196</v>
       </c>
-      <c r="D52" s="11" t="s">
+      <c r="E52" s="37" t="s">
         <v>197</v>
       </c>
-      <c r="E52" s="37" t="s">
+      <c r="F52" s="37" t="s">
         <v>198</v>
-      </c>
-      <c r="F52" s="37" t="s">
-        <v>199</v>
       </c>
     </row>
     <row r="53" ht="15.75" customHeight="1">
       <c r="A53" s="11" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B53" s="11" t="s">
+        <v>194</v>
+      </c>
+      <c r="C53" s="37" t="s">
         <v>195</v>
       </c>
-      <c r="C53" s="37" t="s">
+      <c r="D53" s="11" t="s">
         <v>196</v>
       </c>
-      <c r="D53" s="11" t="s">
-        <v>197</v>
-      </c>
       <c r="E53" s="37" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="F53" s="37" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="54" ht="15.75" customHeight="1">
@@ -13838,19 +13857,19 @@
         <v>62</v>
       </c>
       <c r="B54" s="11" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C54" s="37" t="s">
+        <v>195</v>
+      </c>
+      <c r="D54" s="11" t="s">
         <v>196</v>
       </c>
-      <c r="D54" s="11" t="s">
-        <v>197</v>
-      </c>
       <c r="E54" s="37" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="F54" s="37" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="55" ht="15.75" customHeight="1">
@@ -13858,67 +13877,67 @@
         <v>101</v>
       </c>
       <c r="B55" s="11" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C55" s="37">
         <v>500.0</v>
       </c>
       <c r="D55" s="11" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="E55" s="37" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="F55" s="37" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="56" ht="15.75" customHeight="1">
       <c r="A56" s="37" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B56" s="11" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C56" s="37">
         <v>500.0</v>
       </c>
       <c r="D56" s="37" t="s">
+        <v>255</v>
+      </c>
+      <c r="E56" s="37" t="s">
+        <v>195</v>
+      </c>
+      <c r="F56" s="37" t="s">
         <v>256</v>
-      </c>
-      <c r="E56" s="37" t="s">
-        <v>196</v>
-      </c>
-      <c r="F56" s="37" t="s">
-        <v>257</v>
       </c>
     </row>
     <row r="57" ht="15.75" customHeight="1"/>
     <row r="58" ht="15.75" customHeight="1">
-      <c r="A58" s="77" t="s">
-        <v>258</v>
-      </c>
-      <c r="B58" s="78"/>
-      <c r="C58" s="78"/>
-      <c r="D58" s="78"/>
-      <c r="E58" s="78"/>
-      <c r="F58" s="79"/>
+      <c r="A58" s="81" t="s">
+        <v>257</v>
+      </c>
+      <c r="B58" s="82"/>
+      <c r="C58" s="82"/>
+      <c r="D58" s="82"/>
+      <c r="E58" s="82"/>
+      <c r="F58" s="83"/>
     </row>
     <row r="59" ht="15.75" customHeight="1">
       <c r="A59" s="34" t="s">
+        <v>188</v>
+      </c>
+      <c r="B59" s="8" t="s">
         <v>189</v>
       </c>
-      <c r="B59" s="8" t="s">
+      <c r="C59" s="34" t="s">
         <v>190</v>
       </c>
-      <c r="C59" s="34" t="s">
+      <c r="D59" s="34" t="s">
         <v>191</v>
       </c>
-      <c r="D59" s="34" t="s">
+      <c r="E59" s="34" t="s">
         <v>192</v>
-      </c>
-      <c r="E59" s="34" t="s">
-        <v>193</v>
       </c>
       <c r="F59" s="34" t="s">
         <v>8</v>
@@ -13926,62 +13945,62 @@
     </row>
     <row r="60" ht="15.75" customHeight="1">
       <c r="A60" s="37" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B60" s="11" t="s">
+        <v>194</v>
+      </c>
+      <c r="C60" s="37" t="s">
         <v>195</v>
       </c>
-      <c r="C60" s="37" t="s">
+      <c r="D60" s="37" t="s">
         <v>196</v>
       </c>
-      <c r="D60" s="37" t="s">
+      <c r="E60" s="37" t="s">
         <v>197</v>
       </c>
-      <c r="E60" s="37" t="s">
+      <c r="F60" s="37" t="s">
         <v>198</v>
-      </c>
-      <c r="F60" s="37" t="s">
-        <v>199</v>
       </c>
     </row>
     <row r="61" ht="15.75" customHeight="1">
       <c r="A61" s="11" t="s">
+        <v>259</v>
+      </c>
+      <c r="B61" s="11" t="s">
+        <v>194</v>
+      </c>
+      <c r="C61" s="37" t="s">
+        <v>195</v>
+      </c>
+      <c r="D61" s="11" t="s">
+        <v>208</v>
+      </c>
+      <c r="E61" s="37" t="s">
+        <v>200</v>
+      </c>
+      <c r="F61" s="37" t="s">
         <v>260</v>
-      </c>
-      <c r="B61" s="11" t="s">
-        <v>195</v>
-      </c>
-      <c r="C61" s="37" t="s">
-        <v>196</v>
-      </c>
-      <c r="D61" s="11" t="s">
-        <v>209</v>
-      </c>
-      <c r="E61" s="37" t="s">
-        <v>201</v>
-      </c>
-      <c r="F61" s="37" t="s">
-        <v>261</v>
       </c>
     </row>
     <row r="62" ht="15.75" customHeight="1">
       <c r="A62" s="11" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B62" s="11" t="s">
+        <v>194</v>
+      </c>
+      <c r="C62" s="37" t="s">
         <v>195</v>
       </c>
-      <c r="C62" s="37" t="s">
+      <c r="D62" s="11" t="s">
         <v>196</v>
       </c>
-      <c r="D62" s="11" t="s">
-        <v>197</v>
-      </c>
       <c r="E62" s="37" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="F62" s="37" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="63" ht="15.75" customHeight="1">
@@ -13989,39 +14008,39 @@
         <v>66</v>
       </c>
       <c r="B63" s="11" t="s">
+        <v>194</v>
+      </c>
+      <c r="C63" s="37" t="s">
         <v>195</v>
       </c>
-      <c r="C63" s="37" t="s">
+      <c r="D63" s="11" t="s">
         <v>196</v>
       </c>
-      <c r="D63" s="11" t="s">
-        <v>197</v>
-      </c>
       <c r="E63" s="37" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="F63" s="37" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="64" ht="15.75" customHeight="1">
       <c r="A64" s="11" t="s">
+        <v>263</v>
+      </c>
+      <c r="B64" s="11" t="s">
+        <v>233</v>
+      </c>
+      <c r="C64" s="11" t="s">
+        <v>195</v>
+      </c>
+      <c r="D64" s="11" t="s">
+        <v>196</v>
+      </c>
+      <c r="E64" s="37" t="s">
+        <v>195</v>
+      </c>
+      <c r="F64" s="11" t="s">
         <v>264</v>
-      </c>
-      <c r="B64" s="11" t="s">
-        <v>234</v>
-      </c>
-      <c r="C64" s="11" t="s">
-        <v>196</v>
-      </c>
-      <c r="D64" s="11" t="s">
-        <v>197</v>
-      </c>
-      <c r="E64" s="37" t="s">
-        <v>196</v>
-      </c>
-      <c r="F64" s="11" t="s">
-        <v>265</v>
       </c>
     </row>
     <row r="65" ht="15.75" customHeight="1">
@@ -14029,45 +14048,45 @@
         <v>77</v>
       </c>
       <c r="B65" s="11" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C65" s="11"/>
       <c r="D65" s="11" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="E65" s="37" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="F65" s="11" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="66" ht="15.75" customHeight="1"/>
     <row r="67" ht="15.75" customHeight="1">
-      <c r="A67" s="81" t="s">
-        <v>267</v>
-      </c>
-      <c r="B67" s="78"/>
-      <c r="C67" s="78"/>
-      <c r="D67" s="78"/>
-      <c r="E67" s="78"/>
-      <c r="F67" s="79"/>
+      <c r="A67" s="85" t="s">
+        <v>266</v>
+      </c>
+      <c r="B67" s="82"/>
+      <c r="C67" s="82"/>
+      <c r="D67" s="82"/>
+      <c r="E67" s="82"/>
+      <c r="F67" s="83"/>
     </row>
     <row r="68" ht="15.75" customHeight="1">
       <c r="A68" s="34" t="s">
+        <v>188</v>
+      </c>
+      <c r="B68" s="8" t="s">
         <v>189</v>
       </c>
-      <c r="B68" s="8" t="s">
+      <c r="C68" s="84" t="s">
         <v>190</v>
       </c>
-      <c r="C68" s="80" t="s">
+      <c r="D68" s="84" t="s">
         <v>191</v>
       </c>
-      <c r="D68" s="80" t="s">
+      <c r="E68" s="34" t="s">
         <v>192</v>
-      </c>
-      <c r="E68" s="34" t="s">
-        <v>193</v>
       </c>
       <c r="F68" s="34" t="s">
         <v>8</v>
@@ -14075,62 +14094,62 @@
     </row>
     <row r="69" ht="15.75" customHeight="1">
       <c r="A69" s="11" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B69" s="11" t="s">
+        <v>194</v>
+      </c>
+      <c r="C69" s="37" t="s">
         <v>195</v>
       </c>
-      <c r="C69" s="37" t="s">
-        <v>196</v>
-      </c>
       <c r="D69" s="11" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="E69" s="37" t="s">
+        <v>197</v>
+      </c>
+      <c r="F69" s="37" t="s">
         <v>198</v>
-      </c>
-      <c r="F69" s="37" t="s">
-        <v>199</v>
       </c>
     </row>
     <row r="70" ht="15.75" customHeight="1">
       <c r="A70" s="11" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B70" s="11" t="s">
+        <v>194</v>
+      </c>
+      <c r="C70" s="37" t="s">
         <v>195</v>
       </c>
-      <c r="C70" s="37" t="s">
+      <c r="D70" s="11" t="s">
         <v>196</v>
       </c>
-      <c r="D70" s="11" t="s">
-        <v>197</v>
-      </c>
       <c r="E70" s="37" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="F70" s="37" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="71" ht="15.75" customHeight="1">
       <c r="A71" s="11" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B71" s="11" t="s">
+        <v>194</v>
+      </c>
+      <c r="C71" s="37" t="s">
         <v>195</v>
       </c>
-      <c r="C71" s="37" t="s">
+      <c r="D71" s="11" t="s">
         <v>196</v>
       </c>
-      <c r="D71" s="11" t="s">
-        <v>197</v>
-      </c>
       <c r="E71" s="37" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="F71" s="37" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="72" ht="15.75" customHeight="1">
@@ -14138,59 +14157,59 @@
         <v>73</v>
       </c>
       <c r="B72" s="11" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C72" s="11" t="s">
+        <v>195</v>
+      </c>
+      <c r="D72" s="11" t="s">
         <v>196</v>
       </c>
-      <c r="D72" s="11" t="s">
-        <v>197</v>
-      </c>
       <c r="E72" s="37" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="F72" s="11" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="73" ht="15.75" customHeight="1">
       <c r="A73" s="11" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B73" s="11" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C73" s="11">
         <v>50.0</v>
       </c>
       <c r="D73" s="11" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="E73" s="37" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="F73" s="11" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="74" ht="15.75" customHeight="1">
       <c r="A74" s="11" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B74" s="37" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C74" s="37">
         <v>10.0</v>
       </c>
       <c r="D74" s="37" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="E74" s="37" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="F74" s="37" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="75" ht="15.75" customHeight="1">
@@ -14198,19 +14217,19 @@
         <v>72</v>
       </c>
       <c r="B75" s="37" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C75" s="37">
         <v>50.0</v>
       </c>
       <c r="D75" s="37" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="E75" s="37" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="F75" s="37" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="76" ht="15.75" customHeight="1"/>
